--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -10,8 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,17 +463,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>button. When you click the button, you are directed to a visual walkthrough on how to create a Datasource.
-Select Datasource type Start by choosing the right type of Datasource. It helps tailor the platform to handle specific data characteristics. This ensures efficient processing and analysis based on the nature of your data.
-Import data Connect to the necessary databases or cloud services for a smooth data import into Infoveave. Alternatively, configure the data table for file types. This creates an organized and structured setup for effective data analysis and accurate insights.
-Configure measures and dimensions Set up essential measures and dimensions to introduce flexibility in analysis. This supports charts and widgets, helping you make informed decisions by tailoring insights to your specific goals.
-Save Datasource Save your Datasource to perform various types of analysis. These include business analysis, statistical analysis, query execution, Infoboard creation, machine learning modelling, and workflow automation setup.
-Using the Search Bar The Search Bar at the top right of the screen allows you to quickly find any Datasource within the platform. Simply enter keywords related to the name of the Datasource or any part of the content you are searching for.</t>
+          <t>Automate workflows | Infoveave Help
+Skip to content
+Automate workflows
+Fetch Excel files from remote locations and upload to a database
+Import your file
+Transform your data
+Upload to your storage database
+Send workflow summary</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9824e5d3-3001-4af8-808a-03a515109879</t>
+          <t>70f69e4a-bdf4-4072-bdd3-4394954886c5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,22 +490,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introducing Insights
-Introducing Insights
-Catalogues
-Catalogues
-Creating A Datasource Using Delimited File
-Create A Datasource Using Delimited File
-Creating A Datasource Using IOT Create A Datasource Using IOT
-Creating Excel type Datasource in Infoveave
-Create Datasource Using Microsoft Excel
-Creating Datasource Using Microsoft SQL in Infoveave
-Create Datasource Using Microsoft SQL</t>
+          <t>Workflow Alerts | Infoveave Help
+Skip to content
+Workflow Alerts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>66941e31-9743-4c0c-b2f0-dee04dc689f5</t>
+          <t>2027003d-7c4e-4b6d-acd3-b391a775ae9a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,68 +512,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Create New Data Source
-0:17
-Select Delimited File Type
-0:20
-Select and Upload File
-0:27
-Name the Data Source and Table
-0:32
-Specify Ingestion Type
-1:05 Add Additional Files
-1:08
-Add a Calculated Column
-1:20
-Edit the Table Schema Infoveave supports adding file formats such as Excel, JSON, Delimited, Unstructured, Fixed length files, and Multiple files as a Datasource in Infoveave.
-Creating a Datasource Using a Delimited File To access Infoveave Datasource types, navigate to
-Studio
-Datasources
-.
-All types of Datasources created by you or shared with you are displayed under
-My Datasources
-and
-Shared Datasources .
-To create a new Datasource, click on
-New Datasource
-.
-Choose
-Delimited
-under Files as the Datasource type.
-Upload the delimited file from your local storage. Supported file formats include .csv
-,
-.tsv
-, and
-.txt
-.
-Choose the connection type for your Datasource. In this case, the connection type is set to default.
-Define the Excel Skip Row settings. After you provide the necessary details, click on
-Next
-to configure the data table.
-Once the file is processed, a tabular preview of the data is displayed.
-Provide a name for your Datasource. To add additional files to support your Datasource, click on the
-Add files
-option.
-To customize the
-Table name
-and choose the
-Ingestion type
-, click on the
-Edit
-icon next to the table name. Configure the following fields in this section.
-Table name
-Specify the desired table name.
-Ingestion type
-Choose from options such as
-Incremental
-,
-Truncate and Reload
-, or</t>
+          <t>Introducing Workflows | Infoveave Help
+Skip to content
+Introducing Workflows</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30fe343f-7276-4342-b2ed-bdd208907414</t>
+          <t>190d32dc-ff73-400e-818e-10f668aef832</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -596,42 +534,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Creating a Datasource using Google Analytics
-To access Infoveave Datasource types, navigate to
-Studio
-Datasources
-. All types of Datasources created by you or shared with you will be displayed under My Datasources
-and
-Shared Datasources
-.
-To create a new Datasource, click on
-New Datasource
-.
-Choose
-Google Analytics
-under Cloud Services as the Datasource type. A new window opens for the Datasource creation process.
-In this window, you can see all previously connected Google Analytics accounts, if any.
-To use an existing account, click on
-Use this property across the established connection.
-Name the Datasource. Choose a name that reflects the Datasource for easy identification.
-Enable measures and dimensions based on your requirements.
-Click on
-Save
-to save the Datasource. To add a new Google Analytics connection, click on the
-Add connection +
-icon.
-A popup modal appears asking you to enter your Google Analytics credentials.
-This action establishes the connection between Infoveave and your Google Analytics account. Click on
-Validate
-to validate the connection.
-Click on
-Save
-to save the connection.</t>
+          <t>Introducing Workflows | Infoveave Help
+Skip to content
+Introducing Workflows</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98194bc4-bbed-48e1-9f1a-cc98b7414687</t>
+          <t>1bf734a4-0582-46de-9718-fbdf81a8a248</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -646,67 +556,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0:00
-/
-1:24
-Creating Workflows
-Enter Fullscreen
-Navigate to Data Sources
-0:00
-1:24
-0:00
-Navigate to Data Sources
-0:05
-Create New Data Source 0:10
-Select Excel
-0:14
-Select and Upload the File
-0:23
-Name the Data Source and Table
-0:32
-Add a Calculated Column
-0:47
-Specify the Table Schema 0:50
-Add Dimensions and Measures
-1:13
-Save the Data Source
-1:15
-Upload the Data
-From the Infoveave Infoboard, go to the Studio menu and select Data sources. Infoveave supports adding file formats like Excel, JSON, Delimited, Unstructured, Fixed length files, and Multiple files as a Datasource in Infoveave.
-Creating a Datasource Using Microsoft Excel To access Infoveave Datasource types, navigate to
-Studio
-Datasources
-. All types of Datasources created by you or shared with you are displayed under
-My Datasources
-and
-Shared Datasources
-. To create a new Datasource, click on
-New Datasource
-.
-Choose
-Excel
-under Files as the Datasource type.
-Upload the Excel file from your local storage. Supported file formats include
-.xlsx
-, .xlsm
-, and
-.xls
-. Please note that the maximum file size allowed for upload is 5.00 MB.
-Choose the
-connection type for your Datasource. In this case, the connection type is set to default.
-Define the Excel Skip Row settings.
-After providing the necessary details, click on
-Next
-to configure the data table. Once the file is processed, a tabular preview of the data is displayed.
-Provide a name for your Datasource.
-To add additional files to supplement your Datasource, click on the
-Add files
-option.</t>
+          <t>Managing Workflow | Infoveave Help
+Skip to content
+Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>d5696273-bea8-439a-a397-fb1d943fcfe1</t>
+          <t>0f40870a-00fd-47eb-b439-ba441b7541c8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -721,16 +578,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>button. When you click the button, you’re directed to a visual walkthrough on how to create a list.
-Select data report or query Start a new list in Infoveave by selecting a related SQL query or data report from the drop-down. This step establishes the foundation for the list by determining the Datasource.
-Define data ingestion type Define the data ingestion type by selecting the appropriate radio buttons. This step determines how data is ingested into the list and sets the stage for data management and updates.
-Save List Save the list configuration to ensure that the list, including the selected Datasource and configurations, is stored appropriately for future reference and analysis.
-Synchronize List</t>
+          <t>Managing Workflow | Infoveave Help
+Skip to content
+Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>912a83db-9b22-4b51-93f1-33b504705d61</t>
+          <t>ae488b64-b350-48a1-acea-08efc21fa2e9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -745,17 +600,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Datasource Toolbar | Infoveave Help
+          <t>Workflow Start | Infoveave Help
 Skip to content
-Datasource Toolbar
-Getting Help
-If you are unsure about how to create a Datasource in Infoveave, you can always get assistance by clicking the
-Need help</t>
+Workflow Start</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>236b5743-269b-46bc-a8fd-e038e6c774e9</t>
+          <t>66645f33-f602-47bf-9d91-82c4c2b9a913</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -770,14 +622,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Introducing Datasources | Infoveave Help
+          <t>Workflow Start | Infoveave Help
 Skip to content
-Introducing Datasources</t>
+Workflow Start</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00a31ee9-40e5-4934-9094-4724963121bc</t>
+          <t>8a5798d1-e1ad-41d8-84e2-c88a4d046b04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -792,58 +644,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Creating a New Folder
-To organize your Datasources more efficiently, you can create a new folder. Here’s how to do it.
-Click the
-New Folder
-button. This opens a popup where you can configure your new folder. In the popup, enter a name for your new folder. Choose a name that helps you identify the folder’s purpose.
-After entering the folder name, click the
-Save button to create the folder. The new folder appears under the Folders section.
-Exporting the Datasource list
-The
-Export Datasource list feature allows you to download a structured file that contains all available Datasources in the system. This functionality simplifies data management by providing a comprehensive overview for analysis, reporting, and sharing.
-Creating a New Datasource Follow these steps to create a Datasource in Infoveave.
-Click the
-New Datasource
-button.
-You are navigated to a page that includes
-Files
-,
-Databases
-,
-Cloud Services , and
-Others
-.
-Select the type of Datasource you want to create. To learn in detail, visit
-Excel Files
-,
-Oracle
-,
-Google Analytics
-, and
-Custom Parser
-. Fill in the configuration details.
-After providing the necessary details, click on
-Next
-to configure the data table.
-Provide a name for your Datasource. To make any changes to the data table, select the required one and click on
-Previous
-.
-To define the measures and dimensions on the dataset, click on
-Next
-.
-Click on
-Save
-.
-Filtering by Type The
-Filter by type
-feature allows you to refine your search and quickly find specific Datasources based on predefined categories. The
-Filter by type dropdown offers options such as Delimited and Excel. This lets you filter Datasources based on their format.</t>
+          <t>Creating Infoboard Using A Query
+Create Infoboard Using A Query
+Creating Infoboard Using API
+Create Infoboard Using API
+Creating Workflow in Infoveave
+Creating Workflows
+Workflow Execution Status
+Workflow Execution Status</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>caac4aba-3108-45e6-ab93-cf47423f01ff</t>
+          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -858,27 +671,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Create a datasource using Microsoft Excel | Infoveave Help
-Skip to content
-Create a datasource using Microsoft Excel
-0:00
-Play
-Mute
-0%
-0:00
-/
-1:56
-Creating Workflows Closed-Captions Off
-Settings
-AirPlay
-Google Cast
-Enter PiP
-Enter Fullscreen</t>
+          <t>Upload transformed file to destination database
+Setup the 'Oracle' connection, specify tables, and map columns
+Setup automated workflow summary notification
+Enable 'Send Workflow Summary' for email notifications on automated workflow execution
+Schedule and monitor  workflows Schedule or setup 'Webhooks' and 'Emails' to trigger workflows
+Done</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03741da5-a422-4032-ab47-32afa5385f47</t>
+          <t>2a6c9297-ff5a-4139-bb0d-e87f53ace134</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -898,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,14 +737,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Introducing Datasources | Infoveave Help
-Skip to content
-Introducing Datasources</t>
+          <t>Download
+screenshot.png
+245 KB
+Download
+report.pdf
+1.2 MB
+Download</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00a31ee9-40e5-4934-9094-4724963121bc</t>
+          <t>2eac7b39-b012-4376-b075-d11409512eab</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -956,19 +763,113 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Managing Datasources | Infoveave Help
-Skip to content
-Managing Datasources
-The
-Manage Datasources</t>
+          <t>Report_Q2.xlsx
+412 KB
+[Download Link]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ee51a878-2dbf-4f5a-b3c9-a99ed15c03c2</t>
+          <t>b1ca203f-f243-4040-a967-cd9384857d49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Click
+Export analysis
+to download the file as
+.xlsx
+.
+Click the
+Download
+icon to get the file.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9e4cdce6-45a2-4b63-82f5-7ddb05cea0b8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Remote File Name
+File Name
+Size
+Status
+report_2025-07-09.csv
+report_2025-07-09.csv
+2MB
+Downloaded
+report_2025-07-10.csv report_2025-07-10.csv
+2.1MB
+Downloaded</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>79363a68-041d-4b1c-90b6-8dbb649633d8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>To download a report from Infoveave Insights with specific date range and dimension filters, follow these steps.
+Click on the
+Insights
+section in the Infoveave menu.
+Click on the desired report from the available list. Applying Date Filters
+To apply a date range filter, select either the Start Date or End Date.
+Start Date
+includes data from the beginning of the selected date range.
+End Date includes data up to the end of the selected date range.
+Click on
++ Add Filter
+to apply dimension filters to the report, if needed.
+Select the specific dimensions you want to filter by. After selecting the dimension, choose a conditional filter from the available options.
+To access the conditional filters, click on the word “are”.
+Choose the desired report format. Select PDF or Excel (default) using the checkbox. Select any additional options if required.
+Remove Hidden Sheets
+removes the Infoveave configuration sheet before downloading the report.
+Click on the
+Download Report
+button to download the report.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cac654b2-fddf-462d-af47-66ada278618c</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>
@@ -985,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,27 +922,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Create a Microsoft SQL datasource | Infoveave Help
-Skip to content
-Create a Microsoft SQL datasource
-0:00
-Play
-Mute
-0%
-0:00
-/
-1:13
-Creating Workflows Closed-Captions Off
-Settings
-AirPlay
-Google Cast
-Enter PiP
-Enter Fullscreen</t>
+          <t>associated with the Report. This opens the download dialog box.
+Apply the date range filter. Select the report as either the
+Start date
+or
+End date
+.
+Start date includes data until the start date of the selected date range.
+End date
+includes data until the end date of the selected date range.
+Click on
++ Add filter to apply dimension filters to the report if needed. Select the specific dimensions you want to filter by. Choose the Conditional Filter from the available options.
+Select additional options if required.
+Report as PDF
+generates the report in PDF format. Remove hidden sheets
+removes the Infoveave Config Sheet before downloading or sending the report.
+Click on the
+Download Report
+button to download the report.
+Emailing a Report Infoveave allows you to share your Infoboard insights through email reports. Here is a detailed step-by-step guide on how to send email reports from Infoboard.
+Navigate to
+Studio
+Reports
+.
+Click on the Email
+icon
+on the required Report. This opens the email dialog.
+Specify the recipients of the email report. In the “To” field, enter the email addresses. Use the “CC” field to add additional recipients if needed. Configure the Date Range by choosing the appropriate range for the report.
+Specify the start and end dates for the report using the
+Report as on
+option.
+Select the desired format for the report to email.
+Report as PDF generates the report in PDF format.
+Split report on data
+splits the report based on a specific dimension. If you choose this, select the dimension.
+Remove hidden sheets
+excludes hidden sheets from the report.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ae4cabe6-ad72-4c7d-90c1-c86442334803</t>
+          <t>12b1307a-f672-4103-8910-4ba5657b83b2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1056,52 +977,63 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>.
-To create a new Datasource, click on
-New Datasource
-.
-Choose
-Custom file parser
-as the Datasource type.
-A new window opens for the Datasource creation process. Click on the option to select the file under
-Create Datasource using file
-to upload the file.
-You can select a file from your local storage. Supported file extensions are .txt, .prn, .dat, .dtf, .xlsx, .csv, .xls, .xlsm.
-After providing the necessary details, proceed to
-Next in the Datasource configuration.
-Once the file upload is complete, a preview of the unstructured data becomes available.
-You must create a custom
-parse code
-in either
-.txt or .json
-format for an unstructured file
-.
-You can click on
-Import template
-to import the formatting template from your storage location and convert the Datasource to a structured format.
-Click on
-Preview to see the conversion of the Datasource from an unstructured format to a structured format.
-Click on
-Next
-to configure the measures and dimensions in the Datasource. Once the file processing is complete, a tabular preview of the data becomes available.
-Provide a name for your Datasource.
-To add additional files to supplement your Datasource, click on the
-Add files
-option. To customize the
-Table name
-and choose the
-Ingestion type
-, click on the
-Edit
-icon
-close to the table name. Configure the following fields within this section.
-Table name
-Specify the desired table name.</t>
+          <t>activity automates the generation and distribution of reports via email. It allows users to configure the report format, filter criteria, recipient list, and delivery rules. This is especially useful for operational reporting, scheduled insights, or sharing filtered data with different stakeholders based on regions, departments, or any dimension.
+Use case
+: Automatically send a daily sales performance report (as PDF and Excel) to regional managers with filters applied to each of their regions.
+Input
+Not Applicable
+Output
+Output Type
+Description
+Status Data Table Indicates whether the reports were successfully sent, along with tracking info per recipient.
+Configuration Fields
+|
+Field
+|
+Description
+|
+| -------------------------------------------- | ------------------------------------------------------------------------------------------------ | --- |
+|
+Report Type | Type/category of report to be sent (e.g., Dashboard, Grid).                                      |
+|
+Reports
+| Specific report to send based on the selected report type.                                       |
+|
+Recipients | Comma-separated email addresses of the main recipients.                                          |
+|
+Cc
+| Comma-separated email addresses to receive a carbon copy of the report.                          |
+|
+Date Range | Date range to apply to the report’s dataset.                                                     |
+|
+Filters
+| Additional filter conditions to limit the data shown in the report.                              |
+|
+File Type | Format of the report to export (e.g., PDF, Excel, CSV).                                          |
+|
+Separator
+| Delimiter used for CSV export, such as
+,
+or
+|
+.  |
+| Report As On
+| A specific reference date to run the report for historical analysis.                             |
+|
+Report As PDF
+| Toggle to export and send the report specifically in PDF format.                                 |
+|
+Delete Report Config | Option to clear/delete the current report configuration setup.                                   |
+|
+Is Individual Report
+| If enabled, generates one report per value in the selected dimension (e.g., region-wise report). |
+|
+Use Address Book From</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0e7c4a4e-6c35-46ad-9697-4ea4a4d9b128</t>
+          <t>5b6dda4d-7f44-45cf-b519-9f0d374352a8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1110,200 +1042,131 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Managing Datasources | Infoveave Help
-Skip to content
-Managing Datasources
-The
-Manage Datasources</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ee51a878-2dbf-4f5a-b3c9-a99ed15c03c2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Introducing Datasources | Infoveave Help
-Skip to content
-Introducing Datasources</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>00a31ee9-40e5-4934-9094-4724963121bc</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>JSON Files | Infoveave Help
-Skip to content
-JSON Files
-Infoveave supports various file formats as Datasources. These include Excel, JSON, Delimited, Unstructured, Fixed Length files, and Multiple files. Creating a Datasource using the JSON file
-To access Infoveave Datasource types, navigate to
-Studio
-Datasources
-. All types of Datasources created by you or shared with you will be displayed under My Datasources
-and
-Shared Datasources
-.
-To create a new Datasource, click on
-New Datasource
-.
-Choose
-JSON
-under Files as the Datasource type. Upload the JSON file from your local storage. Please note that the maximum file size allowed for upload is 5.00 MB.
-Click on
-Next
-to configure the data table. Once the file processing is complete, a tabular preview of the data is displayed.
-Provide a name for your Datasource.
-To add additional files to supplement your Datasource, click on the
-Add files
-option.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>66c53450-e075-4886-bde9-46c7336d3845</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Infoveave supports adding file formats such as Excel, JSON, Delimited, Unstructured, Fixed Length files, and Multiple files as a Datasource in Infoveave.
-Creating a Datasource using a Fixed length file To access Infoveave Datasource types, navigate to
-Studio
-Datasources
-. All types of Datasources created by you or shared with you are displayed under
-My Datasources
-and
-Shared Datasources
-.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4814be0c-1122-4406-93dc-c463750665d1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>activity allows you to compose and send emails as part of a workflow. You can configure recipient addresses, subject, body content, and attachments . The activity also supports dynamic emailing using fields from input data, and allows the use of pre-designed Infoveave templates for styling and formatting consistency. Use this activity to:
+Send individual or bulk emails based on incoming data
+Attach files generated in the workflow
+Format emails using templates for consistency
+Embed processed data directly into the email body
+Use case
+: A workflow generates a monthly sales report and automatically sends personalized emails to each regional manager with their region’s data attached and included in the body.
+Input
+Type
+Description
+Data</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>de5e3b97-dd0f-4d05-8da9-ae3c750c78cc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Use Email Address From Data
+true
+Email Column
+RecipientEmail
+Subject
+Monthly Sales Report
+Attachment Name
+Report_{Region}.xlsx
+Split By Column
+Region
+Send Data In Email Body
+true
+Use Infoveave Template</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>e594a1ef-3c6a-491c-ae16-2a96d77700dc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(Optional) Tabular data used to populate dynamic fields like email addresses, template content, or attachment grouping.
+Output
+Output Type
+Format
+Description
+Email Info
+Table Status of sent emails including recipient, success, and any errors encountered.
+Configuration Fields
+Field Name
+Description
+Connection
+Mail server connection to send emails (OAuth or SMTP supported).
+Use Default Credentials If enabled, uses Infoveave’s default email credentials. Disable to use custom authentication.
+Use Email Address From Data
+If enabled, pulls recipient addresses from a specified column in the input data.
+Email Column The column in the data containing the recipient’s email address (required if using email from data).
+Email To Address
+Static recipient(s) for the “To” field (comma-separated).
+Email CC Address Email addresses for the “CC” field (comma-separated).
+Email BCC Address
+Email addresses for the “BCC” field.
+Subject
+Subject line of the email. Can be static or mapped from input data.
+Content The main body content of the email. Supports plain text or HTML.
+Use Infoveave Template
+When enabled, applies an Infoveave-designed template to the email layout.
+Rerun Template Ensures template consistency across multiple emails in the same run.
+Attachment Name
+Name of the attachment file (e.g.,
+SalesReport_May2025.xlsx
+).
+Split By Column Splits data into separate attachments based on values in this column (used in bulk personalization).
+Sheet Name
+The name of the worksheet in the template used for formatting the attachment content.
+Send Data In Email Body If enabled, includes input data as a formatted table within the body of the email.
+Attachment File Pattern
+Pattern to identify which files to attach from prior activities (e.g.,
+"*.pdf"
+).
+Combine
+Split By Column with
+Email Column
+to send a unique email with corresponding data and attachment per recipient.
+Sample Input
+Not applicable
+(used only if sending emails dynamically per row or attaching generated data).
+Sample Configuration
+Field
+Value</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>79fddbc7-ebeb-4a13-9afb-02e3c3ec7774</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,19 +466,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Automate workflows | Infoveave Help
-Skip to content
-Automate workflows
-Fetch Excel files from remote locations and upload to a database
-Import your file
-Transform your data
-Upload to your storage database
-Send workflow summary</t>
+          <t>. Seamless integration with Infoveave’s Automation and workflow framework enhances the ability to deliver results at scale compounding the value-add to your business. Infoveave’s
+ML Modeller module democratizes machine learning, making its power accessible to both seasoned data scientists and business users with limited coding experience . The module simplifies the complexities of machine learning by providing a user-friendly interface and a comprehensive suite of pre-built algorithms to build, train, and deploy predictive models . You can connect to various data sources, prepare data using built-in tools for cleaning and transformation, and leverage features like automated data preprocessing, feature selection, and model evaluation metrics to create accurate predictive models . Whether you are forecasting sales, predicting customer churn, or identifying fraudulent transactions, Infoveave’s ML Modeller helps you unlock the predictive power of your data . Its no-code/low-code environment is designed to accelerate decision-making by streamlining model building. For users requiring custom model development, Infoveave integrates its
+SciPyR Module . This tool allows you to bring your own Python workbooks or write your own code and algorithms. Additionally, these workbooks can be included into automated Workflows to integrate them into business process flows . These algos could be as simple as data cleansing and manipulation activities or as complex as classifications and predictive outputs.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>70f69e4a-bdf4-4072-bdd3-4394954886c5</t>
+          <t>11785ce7-034d-4f0b-ae88-06f48ae01df9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,14 +488,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Workflow Alerts | Infoveave Help
-Skip to content
-Workflow Alerts</t>
+          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2027003d-7c4e-4b6d-acd3-b391a775ae9a</t>
+          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,14 +508,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introducing Workflows | Infoveave Help
+          <t>Defining ML Models | Infoveave Help
 Skip to content
-Introducing Workflows</t>
+Defining ML Models Infoveave ML Model is a powerful tool that helps you create machine learning models. It simplifies the process of building, modifying, and refining these models, enabling you to make effective data-driven decisions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>190d32dc-ff73-400e-818e-10f668aef832</t>
+          <t>e082da9e-2bfe-497c-978a-2afb57574e5c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,14 +530,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introducing Workflows | Infoveave Help
+          <t>Introducing ML Models | Infoveave Help
 Skip to content
-Introducing Workflows</t>
+Introducing ML Models Build powerful ML Models in Infoveave for predictive analysis and decision-making. Configure filters, define input and output columns, set the train-test ratio, and let Infoveave build the models . Save and explore the models to gain valuable insights and make data-driven decisions. Within this guide, you find three sections
+ML Models Layout
+,
+Creating ML Model
+, and
+Managing ML Models
+. Each section focuses on a specific aspect of working with ML Models in Infoveave. Understanding the ML Models Layout In this section, you learn how to navigate the user interface (UI) of the ML Models module in Infoveave . You go through the various components, menus, and tabs available, helping you become familiar with the layout and organization of the related features. This section ensures that you can easily access and locate the necessary functions for building ML Models. Creating an ML Model</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1bf734a4-0582-46de-9718-fbdf81a8a248</t>
+          <t>d6f4d814-ff21-4a40-99e0-aedefc51db41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,14 +558,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Managing Workflow | Infoveave Help
-Skip to content
-Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
+          <t>Managing ML Models
+The Manage ML Model section focuses on maintaining and managing your existing ML Models in Infoveave effectively.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0f40870a-00fd-47eb-b439-ba441b7541c8</t>
+          <t>de7f7f86-f0c9-40d6-96a9-64f9db12338b</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,14 +579,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Managing Workflow | Infoveave Help
-Skip to content
-Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
+          <t>Log in to Infoveave, and explore the Insights, Analysis, Automation, Studio, and Administration menus to familiarize yourself with the available tools and functionalities
+Introduction to Infoveave Infoveave is an advanced business intelligence platform that empowers you with efficient data analysis and automation capabilities. It serves as a comprehensive solution that seamlessly integrates six core modules. These include
+Insights
+,
+Analysis
+,
+Automation
+, Data Apps
+,
+Data Quality
+, and
+Data Governance
+. These modules work together to deliver a wide range of features and functionalities that help you unlock the full potential of your data.
+Infoveave modules In Infoveave, you use six modules. These are
+Insights, Analysis, Automation, Data Apps, Data Quality, and Data Governance
+.
+Insights
+Insights allows you to create new Infoboards to engage with your data. Insights lists all Infoboards you have created and those shared with you . It also provides access to all reports you have created and those shared with you, with an option to download them. You can explore more on the Insights module. Analysis
+The
+Analysis
+module offers functionalities like
+What-If Formula
+and
+What-If Analysis that help you define variables and formulae. By changing input variables, you can study and observe the resulting effect on selected output values. You can also use the Python programming language to analyze and visualize data and forecast future trends using
+SciPyR . This module helps you perform statistical computations and identify data patterns. With
+ML-Models
+, you can build a machine learning model for your data using a query and then use ML Analysis to run that model.
+Automation
+Automation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ae488b64-b350-48a1-acea-08efc21fa2e9</t>
+          <t>c2ca1918-c8fb-4245-9845-56e2e74ebfe4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,14 +627,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Workflow Start | Infoveave Help
+          <t>ML Models Toolbar | Infoveave Help
 Skip to content
-Workflow Start</t>
+ML Models Toolbar
+Getting help
+If you’re unsure about how to create ML Models in Infoveave, you can always get assistance by clicking the
+Need help</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>66645f33-f602-47bf-9d91-82c4c2b9a913</t>
+          <t>3bce5451-466e-4056-8d52-60191f46e0c9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,14 +652,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Workflow Start | Infoveave Help
-Skip to content
-Workflow Start</t>
+          <t>M
+Measures
+Measures are numerical values that represent quantifiable data. They are typically the data points that you want to analyze, such as sales revenue, profit margins, or the number of products sold.
+ML Analysis A Machine Learning (ML) analysis is using machine learning algorithms to extract insights from data, enabling predictions, classifications, and pattern identification for data-driven decision-making.
+ML Model Infoveave ML Model is a powerful tool that helps you create machine learning models. It simplifies the process of building, modifying, and refining these models, enabling you to make effective data-driven decisions.
+My Organization My Organization includes all the Infoboards, Reports, and Lists shared with users in your organization.
+My Workspace
+My Workspace is your personal workspace where you keep all the Infoboards, Reports, and Lists you create.
+N NGuage Forms</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8a5798d1-e1ad-41d8-84e2-c88a4d046b04</t>
+          <t>ca50adb4-85ff-44c9-a8b7-3ca4d2d91ccb</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,19 +680,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Creating Infoboard Using A Query
-Create Infoboard Using A Query
-Creating Infoboard Using API
-Create Infoboard Using API
-Creating Workflow in Infoveave
-Creating Workflows
-Workflow Execution Status
-Workflow Execution Status</t>
+          <t>This section gives you detailed guidance on how to create and set up a machine learning model.
+Creating a Machine Learning (ML) Model
+To create and execute a machine learning model, click on
+Analysis
+ML Modeller . You can find all your ML models under the tabs
+My ML Models
+and
+Shared ML Models
+.
+To create a new model, click on
+New Model
+. This takes you to the ML Model builder. Provide a meaningful
+Name
+in the Setup tab. This helps you identify and understand the purpose of each ML model.
+Click on
+Save
+to save the model.
+Selecting and Validating a Query The query activity forms the foundation of your machine learning model. By validating the query, you enable various data transformation activities that are essential for refining and preparing your data for ML modelling.
+Drag and drop the Query activity from the
+Activity panel to the ML Model builder.
+Click on the Query activity to select the required query from the dropdown list. For detailed instructions on creating queries, refer to the
+Queries
+section.
+Click on the
+Validate and preview button to validate the selected query. Once validated, it displays the data table. This validation step allows you to configure the necessary data transformation activities and in-built ML models.
+Adding and Validating Data Transformation Activities Data transformation activities help you format and prepare data for machine learning analysis. These steps ensure that your data is in the correct format for effective modelling.
+Drag and drop all the required data transformation activities from the
+Activity panel to the ML Model builder.
+Select each activity and configure them individually in the
+Configuration tab
+.
+Link the activities with other configured activities as needed.
+Click on the
+Validate and preview
+button to validate each activity. Selecting and Building an ML Model
+The query activity serves as the foundation of your machine learning model. Validating the query enables various other activities required to build your ML model.
+Drag and drop the required ML Model from the
+Activity panel to the ML Model builder.
+Select the ML Model and configure it in the
+Configuration panel
+.
+Link or chain all the configured data transformation activities with the ML Model in the ML Model builder.
+Click on the
+Validate and build</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
+          <t>cbe14cbc-e6e3-490a-bb35-96624aac26b0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -671,17 +743,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Upload transformed file to destination database
-Setup the 'Oracle' connection, specify tables, and map columns
-Setup automated workflow summary notification
-Enable 'Send Workflow Summary' for email notifications on automated workflow execution
-Schedule and monitor  workflows Schedule or setup 'Webhooks' and 'Emails' to trigger workflows
-Done</t>
+          <t>button to validate and build the ML Model in Infoveave.
+The model begins building. After a successful build, it will display the output.
+Choose the model with the highest accuracy to predict outcomes with more input data.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a6c9297-ff5a-4139-bb0d-e87f53ace134</t>
+          <t>17e0418f-15a6-4f36-aec2-f7327d61ac37</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,18 +806,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Download
-screenshot.png
-245 KB
-Download
-report.pdf
-1.2 MB
-Download</t>
+          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2eac7b39-b012-4376-b075-d11409512eab</t>
+          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -763,113 +826,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Report_Q2.xlsx
-412 KB
-[Download Link]</t>
+          <t>Machine Learning (ML) Model
+The distinction between ML Modeller and ML Analysis in the previous version has been dissolved, and now offers a unified platform called
+ML Modeller
+for both modeling and analysis.
+SciPyR We introduce a significantly improved
+SciPyR
+module, providing advanced analytics capabilities with intuitive user interface. The new release allows the incorporation of Infoveave
+queries
+to your SciPyR analysis.
+Enhancements
+Table Widget Enhancements</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>b1ca203f-f243-4040-a967-cd9384857d49</t>
+          <t>51d59bd2-cc1c-46dd-b9da-b9fcaa8f4517</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Click
-Export analysis
-to download the file as
-.xlsx
-.
-Click the
-Download
-icon to get the file.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9e4cdce6-45a2-4b63-82f5-7ddb05cea0b8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Remote File Name
-File Name
-Size
-Status
-report_2025-07-09.csv
-report_2025-07-09.csv
-2MB
-Downloaded
-report_2025-07-10.csv report_2025-07-10.csv
-2.1MB
-Downloaded</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>79363a68-041d-4b1c-90b6-8dbb649633d8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.16666667</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>To download a report from Infoveave Insights with specific date range and dimension filters, follow these steps.
-Click on the
-Insights
-section in the Infoveave menu.
-Click on the desired report from the available list. Applying Date Filters
-To apply a date range filter, select either the Start Date or End Date.
-Start Date
-includes data from the beginning of the selected date range.
-End Date includes data up to the end of the selected date range.
-Click on
-+ Add Filter
-to apply dimension filters to the report, if needed.
-Select the specific dimensions you want to filter by. After selecting the dimension, choose a conditional filter from the available options.
-To access the conditional filters, click on the word “are”.
-Choose the desired report format. Select PDF or Excel (default) using the checkbox. Select any additional options if required.
-Remove Hidden Sheets
-removes the Infoveave configuration sheet before downloading the report.
-Click on the
-Download Report
-button to download the report.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cac654b2-fddf-462d-af47-66ada278618c</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>
@@ -886,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,47 +897,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>associated with the Report. This opens the download dialog box.
-Apply the date range filter. Select the report as either the
-Start date
-or
-End date
-.
-Start date includes data until the start date of the selected date range.
-End date
-includes data until the end date of the selected date range.
-Click on
-+ Add filter to apply dimension filters to the report if needed. Select the specific dimensions you want to filter by. Choose the Conditional Filter from the available options.
-Select additional options if required.
-Report as PDF
-generates the report in PDF format. Remove hidden sheets
-removes the Infoveave Config Sheet before downloading or sending the report.
-Click on the
-Download Report
-button to download the report.
-Emailing a Report Infoveave allows you to share your Infoboard insights through email reports. Here is a detailed step-by-step guide on how to send email reports from Infoboard.
-Navigate to
-Studio
-Reports
-.
-Click on the Email
-icon
-on the required Report. This opens the email dialog.
-Specify the recipients of the email report. In the “To” field, enter the email addresses. Use the “CC” field to add additional recipients if needed. Configure the Date Range by choosing the appropriate range for the report.
-Specify the start and end dates for the report using the
-Report as on
-option.
-Select the desired format for the report to email.
-Report as PDF generates the report in PDF format.
-Split report on data
-splits the report based on a specific dimension. If you choose this, select the dimension.
-Remove hidden sheets
-excludes hidden sheets from the report.</t>
+          <t>activity allows you to apply a trained machine learning model (previously created and stored) on the selected dataset. The model can perform predictions, classifications, or other ML-based tasks depending on its type and training.
+Use this activity to: Run a trained model on live or batch data
+Generate predictions or decisions based on model logic
+Integrate ML results into workflow pipelines for automation or analysis
+Use Case
+: In a loan approval pipeline, this activity can run a model trained on customer financial data to predict creditworthiness. In a retail scenario, it may classify customer feedback as positive/negative or detect fraud patterns.
+Input
+Not Applicable Output
+Type
+Description
+Data
+Model output, such as predictions or classifications
+Configuration Fields
+Field Name
+Description
+ML Model
+Select a trained machine learning model from the ML model registry.
+Model to use Optional alias or reference name for the model being executed.
+Sample Input
+Not applicable
+— input is pulled from the specified data source.
+Sample Configuration
+Field
+Value
+ML Model
+Loan_Default_Predictor_V3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12b1307a-f672-4103-8910-4ba5657b83b2</t>
+          <t>210d813e-5073-4c1f-b959-b692feff371f</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -977,63 +942,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>activity automates the generation and distribution of reports via email. It allows users to configure the report format, filter criteria, recipient list, and delivery rules. This is especially useful for operational reporting, scheduled insights, or sharing filtered data with different stakeholders based on regions, departments, or any dimension.
-Use case
-: Automatically send a daily sales performance report (as PDF and Excel) to regional managers with filters applied to each of their regions.
-Input
-Not Applicable
-Output
-Output Type
-Description
-Status Data Table Indicates whether the reports were successfully sent, along with tracking info per recipient.
-Configuration Fields
-|
-Field
-|
-Description
-|
-| -------------------------------------------- | ------------------------------------------------------------------------------------------------ | --- |
-|
-Report Type | Type/category of report to be sent (e.g., Dashboard, Grid).                                      |
-|
-Reports
-| Specific report to send based on the selected report type.                                       |
-|
-Recipients | Comma-separated email addresses of the main recipients.                                          |
-|
-Cc
-| Comma-separated email addresses to receive a carbon copy of the report.                          |
-|
-Date Range | Date range to apply to the report’s dataset.                                                     |
-|
-Filters
-| Additional filter conditions to limit the data shown in the report.                              |
-|
-File Type | Format of the report to export (e.g., PDF, Excel, CSV).                                          |
-|
-Separator
-| Delimiter used for CSV export, such as
-,
-or
-|
-.  |
-| Report As On
-| A specific reference date to run the report for historical analysis.                             |
-|
-Report As PDF
-| Toggle to export and send the report specifically in PDF format.                                 |
-|
-Delete Report Config | Option to clear/delete the current report configuration setup.                                   |
-|
-Is Individual Report
-| If enabled, generates one report per value in the selected dimension (e.g., region-wise report). |
-|
-Use Address Book From</t>
+          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5b6dda4d-7f44-45cf-b519-9f0d374352a8</t>
+          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1042,131 +956,289 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>activity allows you to compose and send emails as part of a workflow. You can configure recipient addresses, subject, body content, and attachments . The activity also supports dynamic emailing using fields from input data, and allows the use of pre-designed Infoveave templates for styling and formatting consistency. Use this activity to:
-Send individual or bulk emails based on incoming data
-Attach files generated in the workflow
-Format emails using templates for consistency
-Embed processed data directly into the email body
-Use case
-: A workflow generates a monthly sales report and automatically sends personalized emails to each regional manager with their region’s data attached and included in the body.
-Input
-Type
-Description
-Data</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>de5e3b97-dd0f-4d05-8da9-ae3c750c78cc</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Use Email Address From Data
-true
-Email Column
-RecipientEmail
-Subject
-Monthly Sales Report
-Attachment Name
-Report_{Region}.xlsx
-Split By Column
-Region
-Send Data In Email Body
-true
-Use Infoveave Template</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>e594a1ef-3c6a-491c-ae16-2a96d77700dc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.16666667</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(Optional) Tabular data used to populate dynamic fields like email addresses, template content, or attachment grouping.
-Output
-Output Type
-Format
-Description
-Email Info
-Table Status of sent emails including recipient, success, and any errors encountered.
-Configuration Fields
-Field Name
-Description
-Connection
-Mail server connection to send emails (OAuth or SMTP supported).
-Use Default Credentials If enabled, uses Infoveave’s default email credentials. Disable to use custom authentication.
-Use Email Address From Data
-If enabled, pulls recipient addresses from a specified column in the input data.
-Email Column The column in the data containing the recipient’s email address (required if using email from data).
-Email To Address
-Static recipient(s) for the “To” field (comma-separated).
-Email CC Address Email addresses for the “CC” field (comma-separated).
-Email BCC Address
-Email addresses for the “BCC” field.
-Subject
-Subject line of the email. Can be static or mapped from input data.
-Content The main body content of the email. Supports plain text or HTML.
-Use Infoveave Template
-When enabled, applies an Infoveave-designed template to the email layout.
-Rerun Template Ensures template consistency across multiple emails in the same run.
-Attachment Name
-Name of the attachment file (e.g.,
-SalesReport_May2025.xlsx
-).
-Split By Column Splits data into separate attachments based on values in this column (used in bulk personalization).
-Sheet Name
-The name of the worksheet in the template used for formatting the attachment content.
-Send Data In Email Body If enabled, includes input data as a formatted table within the body of the email.
-Attachment File Pattern
-Pattern to identify which files to attach from prior activities (e.g.,
-"*.pdf"
-).
-Combine
-Split By Column with
-Email Column
-to send a unique email with corresponding data and attachment per recipient.
-Sample Input
-Not applicable
-(used only if sending emails dynamically per row or attaching generated data).
-Sample Configuration
-Field
-Value</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>79fddbc7-ebeb-4a13-9afb-02e3c3ec7774</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>icon to save the configuration.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>408b9af6-fbd3-4db8-a0b4-d1eac471e798</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>icon to save the configuration.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>98dee8d4-e1c3-4d00-964a-8ca40018b62d</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Link activities In the ML Model Builder, you can connect activities by linking the output of one activity to the input of another. Each activity has one input and one output node. This allows you to define the logical flow and sequence of activities within your ML model . By visually connecting activities, you create a cohesive workflow that accurately reflects your desired data processing steps. Lock activity position The ML Model Builder allows you to lock the positions of activities. This prevents accidental modifications and ensures that activities remain in their designated locations. By locking activity positions, you maintain the integrity of your ML model design and avoid unintended changes during the editing process</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c71e16fb-069f-4aef-aa6d-50f6573b305c</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This section gives you detailed guidance on how to create and set up a machine learning model.
+Creating a Machine Learning (ML) Model
+To create and execute a machine learning model, click on
+Analysis
+ML Modeller . You can find all your ML models under the tabs
+My ML Models
+and
+Shared ML Models
+.
+To create a new model, click on
+New Model
+. This takes you to the ML Model builder. Provide a meaningful
+Name
+in the Setup tab. This helps you identify and understand the purpose of each ML model.
+Click on
+Save
+to save the model.
+Selecting and Validating a Query The query activity forms the foundation of your machine learning model. By validating the query, you enable various data transformation activities that are essential for refining and preparing your data for ML modelling.
+Drag and drop the Query activity from the
+Activity panel to the ML Model builder.
+Click on the Query activity to select the required query from the dropdown list. For detailed instructions on creating queries, refer to the
+Queries
+section.
+Click on the
+Validate and preview button to validate the selected query. Once validated, it displays the data table. This validation step allows you to configure the necessary data transformation activities and in-built ML models.
+Adding and Validating Data Transformation Activities Data transformation activities help you format and prepare data for machine learning analysis. These steps ensure that your data is in the correct format for effective modelling.
+Drag and drop all the required data transformation activities from the
+Activity panel to the ML Model builder.
+Select each activity and configure them individually in the
+Configuration tab
+.
+Link the activities with other configured activities as needed.
+Click on the
+Validate and preview
+button to validate each activity. Selecting and Building an ML Model
+The query activity serves as the foundation of your machine learning model. Validating the query enables various other activities required to build your ML model.
+Drag and drop the required ML Model from the
+Activity panel to the ML Model builder.
+Select the ML Model and configure it in the
+Configuration panel
+.
+Link or chain all the configured data transformation activities with the ML Model in the ML Model builder.
+Click on the
+Validate and build</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cbe14cbc-e6e3-490a-bb35-96624aac26b0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>button to validate and build the ML Model in Infoveave.
+The model begins building. After a successful build, it will display the output.
+Choose the model with the highest accuracy to predict outcomes with more input data.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17e0418f-15a6-4f36-aec2-f7327d61ac37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -9,10 +9,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,14 +462,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>. Seamless integration with Infoveave’s Automation and workflow framework enhances the ability to deliver results at scale compounding the value-add to your business. Infoveave’s
-ML Modeller module democratizes machine learning, making its power accessible to both seasoned data scientists and business users with limited coding experience . The module simplifies the complexities of machine learning by providing a user-friendly interface and a comprehensive suite of pre-built algorithms to build, train, and deploy predictive models . You can connect to various data sources, prepare data using built-in tools for cleaning and transformation, and leverage features like automated data preprocessing, feature selection, and model evaluation metrics to create accurate predictive models . Whether you are forecasting sales, predicting customer churn, or identifying fraudulent transactions, Infoveave’s ML Modeller helps you unlock the predictive power of your data . Its no-code/low-code environment is designed to accelerate decision-making by streamlining model building. For users requiring custom model development, Infoveave integrates its
-SciPyR Module . This tool allows you to bring your own Python workbooks or write your own code and algorithms. Additionally, these workbooks can be included into automated Workflows to integrate them into business process flows . These algos could be as simple as data cleansing and manipulation activities or as complex as classifications and predictive outputs.</t>
+          <t>0%
+Play
+0:00
+/
+1:14
+Creating Workflows
+Enter Fullscreen
+Introduction
+0:00
+1:14
+0:00
+Introduction
+0:11
+Navigate to Data Sources 0:16
+Create New Data Source
+0:18
+Select IOT
+0:20
+Select and Upload the File
+0:24
+Name the Data Source and Table
+0:30
+Select Ingestion Type 1:01
+Add Additional Files
+1:06
+Add a Calculated Column</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11785ce7-034d-4f0b-ae88-06f48ae01df9</t>
+          <t>5277ccca-017e-4aba-b405-977f8f65fe7f</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
+          <t>Execute API | Infoveave Help
+Skip to content
+Execute API
+Description
+The
+Execute API Activity
+enables workflows to connect and communicate with any RESTful API by executing configurable HTTP requests such as
+GET
+,
+POST
+, PUT
+, or
+DELETE
+. It allows users to define the request structure including headers, query parameters, body content, pagination rules, response parsing, and authentication.
+This activity is highly flexible and supports integration with
+third-party systems</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
+          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,14 +542,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Defining ML Models | Infoveave Help
-Skip to content
-Defining ML Models Infoveave ML Model is a powerful tool that helps you create machine learning models. It simplifies the process of building, modifying, and refining these models, enabling you to make effective data-driven decisions.</t>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>e082da9e-2bfe-497c-978a-2afb57574e5c</t>
+          <t>3fd7ab5c-2d29-41ea-9ed7-0684f87b08e1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -530,20 +579,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introducing ML Models | Infoveave Help
-Skip to content
-Introducing ML Models Build powerful ML Models in Infoveave for predictive analysis and decision-making. Configure filters, define input and output columns, set the train-test ratio, and let Infoveave build the models . Save and explore the models to gain valuable insights and make data-driven decisions. Within this guide, you find three sections
-ML Models Layout
-,
-Creating ML Model
-, and
-Managing ML Models
-. Each section focuses on a specific aspect of working with ML Models in Infoveave. Understanding the ML Models Layout In this section, you learn how to navigate the user interface (UI) of the ML Models module in Infoveave . You go through the various components, menus, and tabs available, helping you become familiar with the layout and organization of the related features. This section ensures that you can easily access and locate the necessary functions for building ML Models. Creating an ML Model</t>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>d6f4d814-ff21-4a40-99e0-aedefc51db41</t>
+          <t>2adcd9bd-c3f6-41e9-8c27-26f07adfbe4c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -558,13 +616,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Managing ML Models
-The Manage ML Model section focuses on maintaining and managing your existing ML Models in Infoveave effectively.</t>
+          <t>Creating Infoboard Using A Query
+Create Infoboard Using A Query
+Creating Infoboard Using API
+Create Infoboard Using API
+Creating Workflow in Infoveave
+Creating Workflows
+Workflow Execution Status
+Workflow Execution Status</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>de7f7f86-f0c9-40d6-96a9-64f9db12338b</t>
+          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,40 +643,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Log in to Infoveave, and explore the Insights, Analysis, Automation, Studio, and Administration menus to familiarize yourself with the available tools and functionalities
-Introduction to Infoveave Infoveave is an advanced business intelligence platform that empowers you with efficient data analysis and automation capabilities. It serves as a comprehensive solution that seamlessly integrates six core modules. These include
-Insights
-,
-Analysis
-,
-Automation
-, Data Apps
-,
-Data Quality
-, and
-Data Governance
-. These modules work together to deliver a wide range of features and functionalities that help you unlock the full potential of your data.
-Infoveave modules In Infoveave, you use six modules. These are
-Insights, Analysis, Automation, Data Apps, Data Quality, and Data Governance
-.
-Insights
-Insights allows you to create new Infoboards to engage with your data. Insights lists all Infoboards you have created and those shared with you . It also provides access to all reports you have created and those shared with you, with an option to download them. You can explore more on the Insights module. Analysis
-The
-Analysis
-module offers functionalities like
-What-If Formula
-and
-What-If Analysis that help you define variables and formulae. By changing input variables, you can study and observe the resulting effect on selected output values. You can also use the Python programming language to analyze and visualize data and forecast future trends using
-SciPyR . This module helps you perform statistical computations and identify data patterns. With
-ML-Models
-, you can build a machine learning model for your data using a query and then use ML Analysis to run that model.
-Automation
-Automation</t>
+          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>c2ca1918-c8fb-4245-9845-56e2e74ebfe4</t>
+          <t>e1d5e729-523e-4f47-8f5c-47908efa00f5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,17 +663,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ML Models Toolbar | Infoveave Help
-Skip to content
-ML Models Toolbar
-Getting help
-If you’re unsure about how to create ML Models in Infoveave, you can always get assistance by clicking the
-Need help</t>
+          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3bce5451-466e-4056-8d52-60191f46e0c9</t>
+          <t>99d90ede-22f2-4654-9344-3847ee37ebe3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,20 +683,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M
-Measures
-Measures are numerical values that represent quantifiable data. They are typically the data points that you want to analyze, such as sales revenue, profit margins, or the number of products sold.
-ML Analysis A Machine Learning (ML) analysis is using machine learning algorithms to extract insights from data, enabling predictions, classifications, and pattern identification for data-driven decision-making.
-ML Model Infoveave ML Model is a powerful tool that helps you create machine learning models. It simplifies the process of building, modifying, and refining these models, enabling you to make effective data-driven decisions.
-My Organization My Organization includes all the Infoboards, Reports, and Lists shared with users in your organization.
-My Workspace
-My Workspace is your personal workspace where you keep all the Infoboards, Reports, and Lists you create.
-N NGuage Forms</t>
+          <t>Create a datasource using Microsoft Excel | Infoveave Help
+Skip to content
+Create a datasource using Microsoft Excel
+0:00
+Play
+Mute
+0%
+0:00
+/
+1:56
+Creating Workflows Closed-Captions Off
+Settings
+AirPlay
+Google Cast
+Enter PiP
+Enter Fullscreen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ca50adb4-85ff-44c9-a8b7-3ca4d2d91ccb</t>
+          <t>03741da5-a422-4032-ab47-32afa5385f47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -680,55 +718,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>This section gives you detailed guidance on how to create and set up a machine learning model.
-Creating a Machine Learning (ML) Model
-To create and execute a machine learning model, click on
-Analysis
-ML Modeller . You can find all your ML models under the tabs
-My ML Models
-and
-Shared ML Models
+          <t>Workflows | Infoveave Help
+Skip to content
+Workflows Infoveave workflows let you automate and streamline your data processes. These processes range from ingestion to visualization. A workflow is a sequence of connected activities that automates business-critical tasks such as data acquisition, analysis, and reporting. Edit the Workflow status
+Click the pencil icon
+next to a Workflow name to select whether the Workflow is
+verified
+or
+not verified
 .
-To create a new model, click on
-New Model
-. This takes you to the ML Model builder. Provide a meaningful
-Name
-in the Setup tab. This helps you identify and understand the purpose of each ML model.
-Click on
-Save
-to save the model.
-Selecting and Validating a Query The query activity forms the foundation of your machine learning model. By validating the query, you enable various data transformation activities that are essential for refining and preparing your data for ML modelling.
-Drag and drop the Query activity from the
-Activity panel to the ML Model builder.
-Click on the Query activity to select the required query from the dropdown list. For detailed instructions on creating queries, refer to the
-Queries
-section.
-Click on the
-Validate and preview button to validate the selected query. Once validated, it displays the data table. This validation step allows you to configure the necessary data transformation activities and in-built ML models.
-Adding and Validating Data Transformation Activities Data transformation activities help you format and prepare data for machine learning analysis. These steps ensure that your data is in the correct format for effective modelling.
-Drag and drop all the required data transformation activities from the
-Activity panel to the ML Model builder.
-Select each activity and configure them individually in the
-Configuration tab
-.
-Link the activities with other configured activities as needed.
-Click on the
-Validate and preview
-button to validate each activity. Selecting and Building an ML Model
-The query activity serves as the foundation of your machine learning model. Validating the query enables various other activities required to build your ML model.
-Drag and drop the required ML Model from the
-Activity panel to the ML Model builder.
-Select the ML Model and configure it in the
-Configuration panel
-.
-Link or chain all the configured data transformation activities with the ML Model in the ML Model builder.
-Click on the
-Validate and build</t>
+Categorize the Workflow
+Assign specific
+domains
+,
+tiers
+,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cbe14cbc-e6e3-490a-bb35-96624aac26b0</t>
+          <t>da017f02-664a-4420-918f-56af25901047</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -743,14 +752,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>button to validate and build the ML Model in Infoveave.
-The model begins building. After a successful build, it will display the output.
-Choose the model with the highest accuracy to predict outcomes with more input data.</t>
+          <t>Sources
+and click
++ Add New Source
+.
+Click
+Use Code
+.
+Name the source.
+Write JavaScript code.
+Click
+Preview Table
+.
+Click
+Save
+.
+Configuring an Infoboard You can configure Infoboards under the
+Infoboard Setup tab in the Customize panel . This allows you to personalize the Infoboard name, define the date range (including options like years, quarters, months, weeks, or days), and selectively choose relevant workflows to tailor the Infoboard according to your specific needs. Here are the key instructions for using the Infoboards section.
+Infoboard name
+Enter a descriptive and meaningful name for your Infoboard. Choose a name that accurately reflects the purpose or content of the Infoboard. Date range
+Select the appropriate date range option for your Infoboard.
+Default Automatically determine the date range based on the available dataset. Choose from a range of options such as years, quarters, months, weeks, or days to define the default date range.
+Fixed Define a specific date range for the Infoboard, such as particular days, weeks, months, quarters, or years.
+No Date
+Use this option if your Infoboard does not require any date-related information. Select workflows and jobs
+Use the dropdown to select the relevant workflows or jobs and link them with the Infoboard. The Infoboard displays the linked workflows or jobs execution status at the top-right corner of the screen.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17e0418f-15a6-4f36-aec2-f7327d61ac37</t>
+          <t>9779ce44-7139-4da5-99ff-241ed83453de</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,12 +837,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
+          <t>0%
+Play
+0:00
+/
+1:14
+Creating Workflows
+Enter Fullscreen
+Introduction
+0:00
+1:14
+0:00
+Introduction
+0:11
+Navigate to Data Sources 0:16
+Create New Data Source
+0:18
+Select IOT
+0:20
+Select and Upload the File
+0:24
+Name the Data Source and Table
+0:30
+Select Ingestion Type 1:01
+Add Additional Files
+1:06
+Add a Calculated Column</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
+          <t>5277ccca-017e-4aba-b405-977f8f65fe7f</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -826,22 +882,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Machine Learning (ML) Model
-The distinction between ML Modeller and ML Analysis in the previous version has been dissolved, and now offers a unified platform called
-ML Modeller
-for both modeling and analysis.
-SciPyR We introduce a significantly improved
-SciPyR
-module, providing advanced analytics capabilities with intuitive user interface. The new release allows the incorporation of Infoveave
-queries
-to your SciPyR analysis.
-Enhancements
-Table Widget Enhancements</t>
+          <t>Execute API | Infoveave Help
+Skip to content
+Execute API
+Description
+The
+Execute API Activity
+enables workflows to connect and communicate with any RESTful API by executing configurable HTTP requests such as
+GET
+,
+POST
+, PUT
+, or
+DELETE
+. It allows users to define the request structure including headers, query parameters, body content, pagination rules, response parsing, and authentication.
+This activity is highly flexible and supports integration with
+third-party systems</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>51d59bd2-cc1c-46dd-b9da-b9fcaa8f4517</t>
+          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -850,395 +911,255 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>activity allows you to apply a trained machine learning model (previously created and stored) on the selected dataset. The model can perform predictions, classifications, or other ML-based tasks depending on its type and training.
-Use this activity to: Run a trained model on live or batch data
-Generate predictions or decisions based on model logic
-Integrate ML results into workflow pipelines for automation or analysis
-Use Case
-: In a loan approval pipeline, this activity can run a model trained on customer financial data to predict creditworthiness. In a retail scenario, it may classify customer feedback as positive/negative or detect fraud patterns.
-Input
-Not Applicable Output
-Type
-Description
-Data
-Model output, such as predictions or classifications
-Configuration Fields
-Field Name
-Description
-ML Model
-Select a trained machine learning model from the ML model registry.
-Model to use Optional alias or reference name for the model being executed.
-Sample Input
-Not applicable
-— input is pulled from the specified data source.
-Sample Configuration
-Field
-Value
-ML Model
-Loan_Default_Predictor_V3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>210d813e-5073-4c1f-b959-b692feff371f</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>icon to save the configuration.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>408b9af6-fbd3-4db8-a0b4-d1eac471e798</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>icon to save the configuration.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>98dee8d4-e1c3-4d00-964a-8ca40018b62d</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Link activities In the ML Model Builder, you can connect activities by linking the output of one activity to the input of another. Each activity has one input and one output node. This allows you to define the logical flow and sequence of activities within your ML model . By visually connecting activities, you create a cohesive workflow that accurately reflects your desired data processing steps. Lock activity position The ML Model Builder allows you to lock the positions of activities. This prevents accidental modifications and ensures that activities remain in their designated locations. By locking activity positions, you maintain the integrity of your ML model design and avoid unintended changes during the editing process</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>c71e16fb-069f-4aef-aa6d-50f6573b305c</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This section gives you detailed guidance on how to create and set up a machine learning model.
-Creating a Machine Learning (ML) Model
-To create and execute a machine learning model, click on
-Analysis
-ML Modeller . You can find all your ML models under the tabs
-My ML Models
-and
-Shared ML Models
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3fd7ab5c-2d29-41ea-9ed7-0684f87b08e1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2adcd9bd-c3f6-41e9-8c27-26f07adfbe4c</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Creating Infoboard Using A Query
+Create Infoboard Using A Query
+Creating Infoboard Using API
+Create Infoboard Using API
+Creating Workflow in Infoveave
+Creating Workflows
+Workflow Execution Status
+Workflow Execution Status</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14285715</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>e1d5e729-523e-4f47-8f5c-47908efa00f5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>99d90ede-22f2-4654-9344-3847ee37ebe3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.11111111</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Create a datasource using Microsoft Excel | Infoveave Help
+Skip to content
+Create a datasource using Microsoft Excel
+0:00
+Play
+Mute
+0%
+0:00
+/
+1:56
+Creating Workflows Closed-Captions Off
+Settings
+AirPlay
+Google Cast
+Enter PiP
+Enter Fullscreen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03741da5-a422-4032-ab47-32afa5385f47</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Workflows | Infoveave Help
+Skip to content
+Workflows Infoveave workflows let you automate and streamline your data processes. These processes range from ingestion to visualization. A workflow is a sequence of connected activities that automates business-critical tasks such as data acquisition, analysis, and reporting. Edit the Workflow status
+Click the pencil icon
+next to a Workflow name to select whether the Workflow is
+verified
+or
+not verified
 .
-To create a new model, click on
-New Model
-. This takes you to the ML Model builder. Provide a meaningful
-Name
-in the Setup tab. This helps you identify and understand the purpose of each ML model.
-Click on
+Categorize the Workflow
+Assign specific
+domains
+,
+tiers
+,</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>da017f02-664a-4420-918f-56af25901047</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.09090909</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sources
+and click
++ Add New Source
+.
+Click
+Use Code
+.
+Name the source.
+Write JavaScript code.
+Click
+Preview Table
+.
+Click
 Save
-to save the model.
-Selecting and Validating a Query The query activity forms the foundation of your machine learning model. By validating the query, you enable various data transformation activities that are essential for refining and preparing your data for ML modelling.
-Drag and drop the Query activity from the
-Activity panel to the ML Model builder.
-Click on the Query activity to select the required query from the dropdown list. For detailed instructions on creating queries, refer to the
-Queries
-section.
-Click on the
-Validate and preview button to validate the selected query. Once validated, it displays the data table. This validation step allows you to configure the necessary data transformation activities and in-built ML models.
-Adding and Validating Data Transformation Activities Data transformation activities help you format and prepare data for machine learning analysis. These steps ensure that your data is in the correct format for effective modelling.
-Drag and drop all the required data transformation activities from the
-Activity panel to the ML Model builder.
-Select each activity and configure them individually in the
-Configuration tab
 .
-Link the activities with other configured activities as needed.
-Click on the
-Validate and preview
-button to validate each activity. Selecting and Building an ML Model
-The query activity serves as the foundation of your machine learning model. Validating the query enables various other activities required to build your ML model.
-Drag and drop the required ML Model from the
-Activity panel to the ML Model builder.
-Select the ML Model and configure it in the
-Configuration panel
-.
-Link or chain all the configured data transformation activities with the ML Model in the ML Model builder.
-Click on the
-Validate and build</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cbe14cbc-e6e3-490a-bb35-96624aac26b0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>button to validate and build the ML Model in Infoveave.
-The model begins building. After a successful build, it will display the output.
-Choose the model with the highest accuracy to predict outcomes with more input data.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17e0418f-15a6-4f36-aec2-f7327d61ac37</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The create new ML Model section walks you through the process of creating a new ML Model in Infoveave. You learn how to select the required activities from the activity list and arrange them on the ML Models designer canvas to define the workflow</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37a8b367-99e3-45a1-a4dd-8cd6b052b3ea</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+Configuring an Infoboard You can configure Infoboards under the
+Infoboard Setup tab in the Customize panel . This allows you to personalize the Infoboard name, define the date range (including options like years, quarters, months, weeks, or days), and selectively choose relevant workflows to tailor the Infoboard according to your specific needs. Here are the key instructions for using the Infoboards section.
+Infoboard name
+Enter a descriptive and meaningful name for your Infoboard. Choose a name that accurately reflects the purpose or content of the Infoboard. Date range
+Select the appropriate date range option for your Infoboard.
+Default Automatically determine the date range based on the available dataset. Choose from a range of options such as years, quarters, months, weeks, or days to define the default date range.
+Fixed Define a specific date range for the Infoboard, such as particular days, weeks, months, quarters, or years.
+No Date
+Use this option if your Infoboard does not require any date-related information. Select workflows and jobs
+Use the dropdown to select the relevant workflows or jobs and link them with the Infoboard. The Infoboard displays the linked workflows or jobs execution status at the top-right corner of the screen.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9779ce44-7139-4da5-99ff-241ed83453de</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -801,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,51 +838,6 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>0%
-Play
-0:00
-/
-1:14
-Creating Workflows
-Enter Fullscreen
-Introduction
-0:00
-1:14
-0:00
-Introduction
-0:11
-Navigate to Data Sources 0:16
-Create New Data Source
-0:18
-Select IOT
-0:20
-Select and Upload the File
-0:24
-Name the Data Source and Table
-0:30
-Select Ingestion Type 1:01
-Add Additional Files
-1:06
-Add a Calculated Column</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5277ccca-017e-4aba-b405-977f8f65fe7f</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>Execute API | Infoveave Help
 Skip to content
@@ -900,9 +857,36 @@
 third-party systems</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>,
+custom backends
+,
+public APIs
+, and , all without requiring external tools.
+Use case
+:
+In a logistics automation workflow, use this activity to call a courier tracking API like</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
+          <t>86f0e3ce-235c-4f7a-8dc3-6c50480e3d01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -917,29 +901,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Add FTP Download Activity
-0:21
-Configure FTP Download Activity
-0:31
-Add Read Excel Files Activity
-0:35
-Add Transform Activity using Javascript
-0:40
-Add Round Numbers Activity
-0:46 Add Remove Duplicate Rows Activity
-0:52
-Add Drop Columns Activity
-0:56
-Add Rename Columns Activity
-1:01
-Add Upload to Datasource Activity
-1:08
-Execute the Workflow and View Instance History</t>
+          <t>activity allows you to run a custom Node.js script or application as part of a workflow. You can specify the script file, working directory, command, output location, and control execution timeout.
+Use this activity to: Run backend automation written in Node.js
+Process data, files, or external API responses using custom JavaScript logic
+Integrate with CLI tools or third-party Node packages
+Use Case
+: Useful when workflows require backend processing logic like JSON manipulation, calling APIs, or custom data transformation that is best handled using Node.js.
+Input
+Type
+Description
+Files
+Project or script files required for execution
+Output
+Type
+Format Description
+Execution Data
+Table
+Output from the executed command
+Configuration Fields
+Field Name
+Description
+File
+Path to the Node.js script or main file to execute.
+Base Folder
+The folder where the script/project is located. Working Path
+Optional working directory path during execution.
+Command
+Node.js command to execute the script (e.g.,
+node index.js
+).
+Output Directory
+Folder path to save execution output files.
+Max Execute Time Maximum time (in seconds) to allow script execution before timeout.
+Refresh Interval
+Interval (in seconds) to poll for execution status.
+Sample Input
+Not applicable
+— input files are provided through the Files field.
+Sample Configuration Field
+Value
+File
+index.js
+Base Folder
+/user-scripts/
+Command
+node index.js
+Output Directory
+/output/
+Max Execute Time
+60
+Refresh Interval
+5
+Sample Output
+CommandOutput
+Hello World!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3fd7ab5c-2d29-41ea-9ed7-0684f87b08e1</t>
+          <t>3b0042a7-bf88-4e9c-bc13-af93ce17095c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -948,218 +968,344 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Add FTP Download Activity
-0:21
-Configure FTP Download Activity
-0:31
-Add Read Excel Files Activity
-0:35
-Add Transform Activity using Javascript
-0:40
-Add Round Numbers Activity
-0:46 Add Remove Duplicate Rows Activity
-0:52
-Add Drop Columns Activity
-0:56
-Add Rename Columns Activity
-1:01
-Add Upload to Datasource Activity
-1:08
-Execute the Workflow and View Instance History</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2adcd9bd-c3f6-41e9-8c27-26f07adfbe4c</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.16666667</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Creating Infoboard Using A Query
-Create Infoboard Using A Query
-Creating Infoboard Using API
-Create Infoboard Using API
-Creating Workflow in Infoveave
-Creating Workflows
-Workflow Execution Status
-Workflow Execution Status</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.14285715</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>e1d5e729-523e-4f47-8f5c-47908efa00f5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>99d90ede-22f2-4654-9344-3847ee37ebe3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.11111111</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Create a datasource using Microsoft Excel | Infoveave Help
-Skip to content
-Create a datasource using Microsoft Excel
-0:00
-Play
-Mute
-0%
-0:00
-/
-1:56
-Creating Workflows Closed-Captions Off
-Settings
-AirPlay
-Google Cast
-Enter PiP
-Enter Fullscreen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>03741da5-a422-4032-ab47-32afa5385f47</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Workflows | Infoveave Help
-Skip to content
-Workflows Infoveave workflows let you automate and streamline your data processes. These processes range from ingestion to visualization. A workflow is a sequence of connected activities that automates business-critical tasks such as data acquisition, analysis, and reporting. Edit the Workflow status
-Click the pencil icon
-next to a Workflow name to select whether the Workflow is
-verified
-or
-not verified
-.
-Categorize the Workflow
-Assign specific
-domains
-,
-tiers
-,</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>da017f02-664a-4420-918f-56af25901047</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.09090909</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sources
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
+Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
+Select
+Sources
 and click
 + Add New Source
-.
-Click
-Use Code
+. Click
+Use API
 .
 Name the source.
-Write JavaScript code.
-Click
-Preview Table
-.
+Choose the request method (GET or POST).
+Enter the API URL.
+Select content type (
+json
+or
+form-url-encoded
+).
+Click
+Headers to add headers (e.g., Authorization).
+For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
+Authorization Header Often used for authentication, it might include a token or other credentials
+Content-Type Header
+Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
+Click
++
+to add more headers.
+Click the delete icon to remove a header.
+If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
+Click
+Run
+to test the API.
 Click
 Save
 .
-Configuring an Infoboard You can configure Infoboards under the
-Infoboard Setup tab in the Customize panel . This allows you to personalize the Infoboard name, define the date range (including options like years, quarters, months, weeks, or days), and selectively choose relevant workflows to tailor the Infoboard according to your specific needs. Here are the key instructions for using the Infoboards section.
-Infoboard name
-Enter a descriptive and meaningful name for your Infoboard. Choose a name that accurately reflects the purpose or content of the Infoboard. Date range
-Select the appropriate date range option for your Infoboard.
-Default Automatically determine the date range based on the available dataset. Choose from a range of options such as years, quarters, months, weeks, or days to define the default date range.
-Fixed Define a specific date range for the Infoboard, such as particular days, weeks, months, quarters, or years.
-No Date
-Use this option if your Infoboard does not require any date-related information. Select workflows and jobs
-Use the dropdown to select the relevant workflows or jobs and link them with the Infoboard. The Infoboard displays the linked workflows or jobs execution status at the top-right corner of the screen.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9779ce44-7139-4da5-99ff-241ed83453de</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+To insert a new row using POST
+Use
+POST
+request type. Enter the URL.
+Add JSON in request body.
+Preview the table.
+Change to
+GET
+and preview again to confirm.
+Code source
+This section shows how to create an Infoboard source using JavaScript.
+Select</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9b894708-b0a8-4ca4-8a7f-815112c39b4e</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
+Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
+Select
+Sources
+and click
++ Add New Source
+. Click
+Use API
+.
+Name the source.
+Choose the request method (GET or POST).
+Enter the API URL.
+Select content type (
+json
+or
+form-url-encoded
+).
+Click
+Headers to add headers (e.g., Authorization).
+For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
+Authorization Header Often used for authentication, it might include a token or other credentials
+Content-Type Header
+Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
+Click
++
+to add more headers.
+Click the delete icon to remove a header.
+If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
+Click
+Run
+to test the API.
+Click
+Save
+.
+To insert a new row using POST
+Use
+POST
+request type. Enter the URL.
+Add JSON in request body.
+Preview the table.
+Change to
+GET
+and preview again to confirm.
+Code source
+This section shows how to create an Infoboard source using JavaScript.
+Select</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f4e5993d-79b7-4242-b43b-7ae26bafd40f</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
+Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
+Select
+Sources
+and click
++ Add New Source
+. Click
+Use API
+.
+Name the source.
+Choose the request method (GET or POST).
+Enter the API URL.
+Select content type (
+json
+or
+form-url-encoded
+).
+Click
+Headers to add headers (e.g., Authorization).
+For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
+Authorization Header Often used for authentication, it might include a token or other credentials
+Content-Type Header
+Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
+Click
++
+to add more headers.
+Click the delete icon to remove a header.
+If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
+Click
+Run
+to test the API.
+Click
+Save
+.
+To insert a new row using POST
+Use
+POST
+request type. Enter the URL.
+Add JSON in request body.
+Preview the table.
+Change to
+GET
+and preview again to confirm.
+Code source
+This section shows how to create an Infoboard source using JavaScript.
+Select</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>351b2240-9c72-4569-9c3a-605aa1a0405a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>To learn how to add calculated columns in Infoveave, visit the section
+Calculated Columns
+.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17c3977a-37bb-411f-867c-39d844d8decd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>To learn how to add calculated columns in Infoveave, visit the section
+Calculated Columns
+.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>90a41eca-7d26-4774-af4f-59db807255a3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_helper_docs_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>To learn how to add calculated columns in Infoveave, visit the section
+Calculated Columns
+.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6e08a086-23dc-490a-964e-432dfae3d8aa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>infoverve_helper_docs_hybrid</t>
         </is>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,12 +492,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5277ccca-017e-4aba-b405-977f8f65fe7f</t>
+          <t>a0caccec-9565-4887-8992-d7791beabb2d</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -529,12 +527,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
+          <t>33ad1185-5763-4a35-be47-93224ac71721</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -566,12 +564,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3fd7ab5c-2d29-41ea-9ed7-0684f87b08e1</t>
+          <t>0be4ef73-e041-4137-95c7-7b413ba07cb9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -603,12 +601,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2adcd9bd-c3f6-41e9-8c27-26f07adfbe4c</t>
+          <t>46522e56-562f-4a5e-895f-779a7007db7d</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -630,12 +628,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>df9d15c4-2094-450f-95e6-162e03d5828a</t>
+          <t>9811f050-3bca-478f-acdb-51c39e74406e</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -650,12 +648,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>e1d5e729-523e-4f47-8f5c-47908efa00f5</t>
+          <t>2c28a52d-b1d8-49df-8f67-1d69193026b3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -670,12 +668,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>99d90ede-22f2-4654-9344-3847ee37ebe3</t>
+          <t>0010fd37-1df1-4eac-af81-f6591e893200</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -705,12 +703,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03741da5-a422-4032-ab47-32afa5385f47</t>
+          <t>4bfcf6e8-bc8a-4edb-994e-487240672ad9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -739,12 +737,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>da017f02-664a-4420-918f-56af25901047</t>
+          <t>1e5cc8c3-c38c-4d5c-ab91-4c4ed63c9951</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -783,12 +781,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9779ce44-7139-4da5-99ff-241ed83453de</t>
+          <t>af426c49-b9ad-40e2-94ce-3b3a589c0065</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -803,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,32 +837,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Execute API | Infoveave Help
-Skip to content
-Execute API
-Description
-The
-Execute API Activity
-enables workflows to connect and communicate with any RESTful API by executing configurable HTTP requests such as
-GET
-,
-POST
-, PUT
-, or
-DELETE
-. It allows users to define the request structure including headers, query parameters, body content, pagination rules, response parsing, and authentication.
-This activity is highly flexible and supports integration with
-third-party systems</t>
+          <t>Download
+screenshot.png
+245 KB
+Download
+report.pdf
+1.2 MB
+Download</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fa3a2b04-d657-4ab1-872e-c4300b408723</t>
+          <t>98627e1f-8a01-4dcb-9dd3-f66c4f9745aa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -874,24 +863,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>,
-custom backends
-,
-public APIs
-, and , all without requiring external tools.
-Use case
-:
-In a logistics automation workflow, use this activity to call a courier tracking API like</t>
+          <t>activity replaces values within selected columns based on user-defined rules. This is helpful for standardizing inconsistent text, correcting values, or transforming entries using exact match, partial match, or regular expressions.
+Use Case Replace all occurrences of “HP” with “HP Inc.” in
+brand_names
+column or standardize spelling differences (e.g., “Fastrack” to “Fastrack Inc”).
+Input
+Type
+Description
+Data A dataset with one or more columns to update using replacement rules
+Output
+Type
+Description
+Transformed Data
+The modified dataset with values replaced as per configuration
+Configuration Fields
+Field Name
+Required
+Description
+Column Map
+Yes Define the columns and their associated replacement rules. Each column will have its own settings.
+• Column Name
+Yes
+Column on which replacement rules will apply.
+• Matching Mode
+Yes
+Type of match used to find values: Complete Value
+Substring
+Regex Pattern
+• Matching Case
+No
+Specify match case:
+Case-Sensitive
+Case-Insensitive
+Replacement
+Yes
+Define the pairs of values to find and their replacements. Multiple rules can be added. • Find
+Yes
+The text or pattern to search for.
+• Replace
+Yes
+The value to replace the matched text with.
+Sample Input
+product_id
+product_name
+brand_names
+P001
+Smartphone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>86f0e3ce-235c-4f7a-8dc3-6c50480e3d01</t>
+          <t>b6c30250-ee2b-4833-bd11-65991ca01679</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>infoverve_helper_docs_hybrid</t>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>
@@ -901,413 +928,304 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>activity allows you to run a custom Node.js script or application as part of a workflow. You can specify the script file, working directory, command, output location, and control execution timeout.
-Use this activity to: Run backend automation written in Node.js
-Process data, files, or external API responses using custom JavaScript logic
-Integrate with CLI tools or third-party Node packages
-Use Case
-: Useful when workflows require backend processing logic like JSON manipulation, calling APIs, or custom data transformation that is best handled using Node.js.
-Input
-Type
+          <t>operation to filter issues (e.g.,
+status = "In Progress"
+).
+Optional
+Sample Input
+Field
+Value
+Summary
+Fix login crash on mobile
+Issue Type
+Bug
+Description App crashes when login is attempted with expired token.
+Project
+MOBILE
+Assignee
+dev.jane
+Priority
+High
+Sample Configuration
+Field
+Value
+Connection
+Jira OAuth
+Site Name
+your-company.atlassian.net Operation
+Create
+Project
+MOBILE
+Issue Type
+Bug
+Summary
+Fix login crash on mobile
 Description
-Files
-Project or script files required for execution
-Output
-Type
-Format Description
-Execution Data
-Table
-Output from the executed command
-Configuration Fields
-Field Name
-Description
-File
-Path to the Node.js script or main file to execute.
-Base Folder
-The folder where the script/project is located. Working Path
-Optional working directory path during execution.
-Command
-Node.js command to execute the script (e.g.,
-node index.js
-).
-Output Directory
-Folder path to save execution output files.
-Max Execute Time Maximum time (in seconds) to allow script execution before timeout.
-Refresh Interval
-Interval (in seconds) to poll for execution status.
+App crashes with expired token
+Priority
+High
+Assignee
+dev.jane
+Sample Output
+Field
+Value
+ID 100120
+Key
+MOBILE-456
+Self
+https://your-company.atlassian.net/rest/api/3/issue/100120
+Summary
+Fix login crash on mobile
+Status
+To Do
+Assignee Name
+Jane Developer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ff4e04e9-04ad-438d-872a-982d7a8d5848</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023
+09
+15
+2
+2022-05-20
+2022
+05
+20
+3
+2021-12-30
+2021
+12
+30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4f8c6653-7195-473f-8720-b21989260535</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>in Infoveave.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>caccd985-f8af-4286-93dd-d44d741822b1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14285715</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>permissions
+123456789
+Marketing Projects
+public
+w_123
+4567
+edit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6a3caa09-5821-43c0-90b2-046969f7a13d</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>111
+222
+Created</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a756b9ff-e3bf-410e-a48a-7806665eded3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.11111111</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-11-01
+05/05/2023
+1.50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>e3c32a6b-b022-4422-b4ed-5479d6e3b9af</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>zip
+Zip or postal code.
+country
+Country of the contact.
+Additional Fields
+Custom user-defined fields for
+Create
+,
+Update
+.
+Config Fields Mapping
+Field mappings for input data in
+Create Many
+. Additional Fields Mapping
+Custom field mappings for
+Create Many
+.
 Sample Input
-Not applicable
-— input files are provided through the Files field.
-Sample Configuration Field
+Operation
+Required Fields
+Example
+Get
+Id
+Id:
+123456700000001
+Get All
+None
+(No input required)
+Create Contact fields
+firstname:
+John
+, lastname:
+Doe
+, email:
+john@example.com
+, city:
+New York
+, jobtitle:
+Manager
+Update
+Id
+, fields to update
+Id: 123456700000001
+, jobtitle:
+Senior Manager
+, city:
+Los Angeles
+Delete
+Id
+Id:
+123456700000001
+Create Many
+Field Mappings ConfigFieldsMapping: { firstname → FirstName, email → EmailAddress, city → Location }, AdditionalFieldsMapping: { jobtitle → Role }
+Input fields for
+Create Many operation are mapped from data output by the previous activity in the workflow.
+Sample Configuration
+Field
 Value
-File
-index.js
-Base Folder
-/user-scripts/
-Command
-node index.js
-Output Directory
-/output/
-Max Execute Time
-60
-Refresh Interval
-5
+connection.id
+hubspot-conn-001
+operation
+CreateMany
+ConfigFieldsMapping firstname → FirstName, email → EmailAddress, city → Location
+AdditionalFieldsMapping
+jobtitle → Role
 Sample Output
-CommandOutput
-Hello World!</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3b0042a7-bf88-4e9c-bc13-af93ce17095c</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
-Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
-Select
-Sources
-and click
-+ Add New Source
-. Click
-Use API
-.
-Name the source.
-Choose the request method (GET or POST).
-Enter the API URL.
-Select content type (
-json
-or
-form-url-encoded
-).
-Click
-Headers to add headers (e.g., Authorization).
-For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
-Authorization Header Often used for authentication, it might include a token or other credentials
-Content-Type Header
-Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
-Click
-+
-to add more headers.
-Click the delete icon to remove a header.
-If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
-Click
-Run
-to test the API.
-Click
-Save
-.
-To insert a new row using POST
-Use
-POST
-request type. Enter the URL.
-Add JSON in request body.
-Preview the table.
-Change to
-GET
-and preview again to confirm.
-Code source
-This section shows how to create an Infoboard source using JavaScript.
-Select</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9b894708-b0a8-4ca4-8a7f-815112c39b4e</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
-Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
-Select
-Sources
-and click
-+ Add New Source
-. Click
-Use API
-.
-Name the source.
-Choose the request method (GET or POST).
-Enter the API URL.
-Select content type (
-json
-or
-form-url-encoded
-).
-Click
-Headers to add headers (e.g., Authorization).
-For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
-Authorization Header Often used for authentication, it might include a token or other credentials
-Content-Type Header
-Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
-Click
-+
-to add more headers.
-Click the delete icon to remove a header.
-If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
-Click
-Run
-to test the API.
-Click
-Save
-.
-To insert a new row using POST
-Use
-POST
-request type. Enter the URL.
-Add JSON in request body.
-Preview the table.
-Change to
-GET
-and preview again to confirm.
-Code source
-This section shows how to create an Infoboard source using JavaScript.
-Select</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>f4e5993d-79b7-4242-b43b-7ae26bafd40f</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>This section provides detailed guidance and instructions on how to create a Datasource directly from an API. You follow the steps to set up API sources, configure HTTP request methods, enter the request URLs, define the headers and run the API. You therefore learn how to incorporate data from APIs into your widgets.
-Here is a step-by-step guide on how to effectively call an API for your Infoboard widgets.
-Select
-Sources
-and click
-+ Add New Source
-. Click
-Use API
-.
-Name the source.
-Choose the request method (GET or POST).
-Enter the API URL.
-Select content type (
-json
-or
-form-url-encoded
-).
-Click
-Headers to add headers (e.g., Authorization).
-For each header, define a name/key and a corresponding value.The name/key typically represents the type of information, like “Authorization” or “Content-Type.”
-Authorization Header Often used for authentication, it might include a token or other credentials
-Content-Type Header
-Specifies the format of the data being sent, such as “application/json” for JSON data. The value is the specific data associated with that name/key.
-Click
-+
-to add more headers.
-Click the delete icon to remove a header.
-If needed, add request body in JSON. Add Auth info if needed (Auth URL, headers, client ID, secret).
-Click
-Run
-to test the API.
-Click
-Save
-.
-To insert a new row using POST
-Use
-POST
-request type. Enter the URL.
-Add JSON in request body.
-Preview the table.
-Change to
-GET
-and preview again to confirm.
-Code source
-This section shows how to create an Infoboard source using JavaScript.
-Select</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>351b2240-9c72-4569-9c3a-605aa1a0405a</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>page_content</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_collection_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>To learn how to add calculated columns in Infoveave, visit the section
-Calculated Columns
-.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17c3977a-37bb-411f-867c-39d844d8decd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.33333334</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>To learn how to add calculated columns in Infoveave, visit the section
-Calculated Columns
-.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>90a41eca-7d26-4774-af4f-59db807255a3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>To learn how to add calculated columns in Infoveave, visit the section
-Calculated Columns
-.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6e08a086-23dc-490a-964e-432dfae3d8aa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_helper_docs_hybrid</t>
+Id
+First Name
+Last Name
+Email
+City
+Job Title
+Created Time
+12345678
+John</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>edd31958-e0dd-43c6-9100-c28606ff1ee5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.09090909</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-07-01T11:15Z</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9a892e99-7db3-404e-832f-fd14114bd0cf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
         </is>
       </c>
     </row>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="initial_docs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="final_docs_2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,37 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0%
-Play
-0:00
-/
-1:14
-Creating Workflows
-Enter Fullscreen
-Introduction
-0:00
-1:14
-0:00
-Introduction
-0:11
-Navigate to Data Sources 0:16
-Create New Data Source
-0:18
-Select IOT
-0:20
-Select and Upload the File
-0:24
-Name the Data Source and Table
-0:30
-Select Ingestion Type 1:01
-Add Additional Files
-1:06
-Add a Calculated Column</t>
+          <t>Workflow Alerts | Infoveave Help
+Skip to content
+Workflow Alerts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a0caccec-9565-4887-8992-d7791beabb2d</t>
+          <t>af1d6067-3d6b-46bb-ab0f-f276854e4fe7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,27 +485,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Execute API | Infoveave Help
+          <t>Automate workflows | Infoveave Help
 Skip to content
-Execute API
-Description
-The
-Execute API Activity
-enables workflows to connect and communicate with any RESTful API by executing configurable HTTP requests such as
-GET
-,
-POST
-, PUT
-, or
-DELETE
-. It allows users to define the request structure including headers, query parameters, body content, pagination rules, response parsing, and authentication.
-This activity is highly flexible and supports integration with
-third-party systems</t>
+Automate workflows
+Fetch Excel files from remote locations and upload to a database
+Import your file
+Transform your data
+Upload to your storage database
+Send workflow summary</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33ad1185-5763-4a35-be47-93224ac71721</t>
+          <t>c5602d79-e027-49ad-8532-ac56f7ea0bad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,29 +512,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Add FTP Download Activity
-0:21
-Configure FTP Download Activity
-0:31
-Add Read Excel Files Activity
-0:35
-Add Transform Activity using Javascript
-0:40
-Add Round Numbers Activity
-0:46 Add Remove Duplicate Rows Activity
-0:52
-Add Drop Columns Activity
-0:56
-Add Rename Columns Activity
-1:01
-Add Upload to Datasource Activity
-1:08
-Execute the Workflow and View Instance History</t>
+          <t>Managing Workflow | Infoveave Help
+Skip to content
+Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0be4ef73-e041-4137-95c7-7b413ba07cb9</t>
+          <t>9bb3b909-b9f5-4755-b858-5a9f50e52c59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -579,29 +534,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Add FTP Download Activity
-0:21
-Configure FTP Download Activity
-0:31
-Add Read Excel Files Activity
-0:35
-Add Transform Activity using Javascript
-0:40
-Add Round Numbers Activity
-0:46 Add Remove Duplicate Rows Activity
-0:52
-Add Drop Columns Activity
-0:56
-Add Rename Columns Activity
-1:01
-Add Upload to Datasource Activity
-1:08
-Execute the Workflow and View Instance History</t>
+          <t>Managing Workflow | Infoveave Help
+Skip to content
+Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>46522e56-562f-4a5e-895f-779a7007db7d</t>
+          <t>5954da2e-cbd3-476d-8bb5-82170295fdf6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,6 +555,94 @@
         <v>0.16666667</v>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
+Click on the
+Add</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10302f38-8b90-44a9-be47-42654d212fc4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14285715</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
+Click on the
+Add</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f8526840-2aff-4f39-b492-4fe991efc3f5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Workflow Start | Infoveave Help
+Skip to content
+Workflow Start</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a7431116-9858-403e-9be5-86a8b5febbc7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.11111111</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Workflow Start | Infoveave Help
+Skip to content
+Workflow Start</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d5e69425-463f-4156-823e-09315f11033b</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Creating Infoboard Using A Query
 Create Infoboard Using A Query
@@ -626,118 +654,9 @@
 Workflow Execution Status</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9811f050-3bca-478f-acdb-51c39e74406e</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.14285715</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2c28a52d-b1d8-49df-8f67-1d69193026b3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>In the Workflow Designer, you can connect activities by linking the output of one activity to the input of another. Each activity has input and output nodes. This allows you to define the logical flow and sequence of activities within your Workflow . By visually connecting activities, you can create a cohesive Workflow that accurately reflects your desired data processing steps.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0010fd37-1df1-4eac-af81-f6591e893200</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.11111111</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Create a datasource using Microsoft Excel | Infoveave Help
-Skip to content
-Create a datasource using Microsoft Excel
-0:00
-Play
-Mute
-0%
-0:00
-/
-1:56
-Creating Workflows Closed-Captions Off
-Settings
-AirPlay
-Google Cast
-Enter PiP
-Enter Fullscreen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4bfcf6e8-bc8a-4edb-994e-487240672ad9</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Workflows | Infoveave Help
-Skip to content
-Workflows Infoveave workflows let you automate and streamline your data processes. These processes range from ingestion to visualization. A workflow is a sequence of connected activities that automates business-critical tasks such as data acquisition, analysis, and reporting. Edit the Workflow status
-Click the pencil icon
-next to a Workflow name to select whether the Workflow is
-verified
-or
-not verified
-.
-Categorize the Workflow
-Assign specific
-domains
-,
-tiers
-,</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1e5cc8c3-c38c-4d5c-ab91-4c4ed63c9951</t>
+          <t>cb2b37ce-ec3a-4f89-8adb-4ede16cb755b</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -752,36 +671,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sources
-and click
-+ Add New Source
-.
-Click
-Use Code
-.
-Name the source.
-Write JavaScript code.
-Click
-Preview Table
-.
-Click
-Save
-.
-Configuring an Infoboard You can configure Infoboards under the
-Infoboard Setup tab in the Customize panel . This allows you to personalize the Infoboard name, define the date range (including options like years, quarters, months, weeks, or days), and selectively choose relevant workflows to tailor the Infoboard according to your specific needs. Here are the key instructions for using the Infoboards section.
-Infoboard name
-Enter a descriptive and meaningful name for your Infoboard. Choose a name that accurately reflects the purpose or content of the Infoboard. Date range
-Select the appropriate date range option for your Infoboard.
-Default Automatically determine the date range based on the available dataset. Choose from a range of options such as years, quarters, months, weeks, or days to define the default date range.
-Fixed Define a specific date range for the Infoboard, such as particular days, weeks, months, quarters, or years.
-No Date
-Use this option if your Infoboard does not require any date-related information. Select workflows and jobs
-Use the dropdown to select the relevant workflows or jobs and link them with the Infoboard. The Infoboard displays the linked workflows or jobs execution status at the top-right corner of the screen.</t>
+          <t>Introducing Workflows | Infoveave Help
+Skip to content
+Introducing Workflows</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>af426c49-b9ad-40e2-94ce-3b3a589c0065</t>
+          <t>08fad07f-1f32-42ba-a966-ad5c94fd510e</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,18 +734,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Download
-screenshot.png
-245 KB
-Download
-report.pdf
-1.2 MB
-Download</t>
+          <t>Execute Query | Infoveave Help
+Skip to content
+Execute Query
+Description
+The
+Execute Query</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>98627e1f-8a01-4dcb-9dd3-f66c4f9745aa</t>
+          <t>a4a1b9fd-9e7b-4f8c-8b01-1c2d5783a892</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -863,57 +759,298 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>activity replaces values within selected columns based on user-defined rules. This is helpful for standardizing inconsistent text, correcting values, or transforming entries using exact match, partial match, or regular expressions.
-Use Case Replace all occurrences of “HP” with “HP Inc.” in
-brand_names
-column or standardize spelling differences (e.g., “Fastrack” to “Fastrack Inc”).
+          <t>This activity connects to your Google Cloud project, runs the specified query, and returns the results in tabular format. It is ideal for pulling real-time analytics, data transformations, or integrating cloud data into your workflow pipelines.
+Use case
+: Fetch customer order data by region for the last quarter directly from BigQuery to feed a dashboard or analytics engine.
+Input
+Not Applicable
+Output
+Output Type
+Format
+Description
+Data
+Table Output of the executed BigQuery SQL query.
+Configuration Fields
+Field Name
+Description
+Connection
+Google BigQuery connection (OAuth or service account). Required for access.
+Project
+Google Cloud Project ID containing the BigQuery datasets.
+Query The SQL query string to be executed. Supports standard SQL syntax.
+Sample Input
+Not Applicable
+Sample Configuration
+Field
+Value
+Connection
+Google BigQuery OAuth
+Project
+customer-data-analytics
+Query</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8b218577-677d-44ae-bef7-35b5bd2131bf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>activity executes a structured query (e.g., SQL) against a configured data source such as a relational database, data warehouse, or cloud storage engine . You can retrieve the results directly as tabular output or optionally save them to a file using configurable export settings. This activity is especially useful for dynamically pulling data into a workflow, generating reports, or integrating external data systems. When saving results to a file, it also supports advanced formatting using templates, encryption, and partitioning logic. Use this activity to:
+Query databases and bring live data into workflows
+Export query results as Excel or CSV files
+Apply formatting using templates and control sheet/row structure
+Secure output files with encryption and filename customization
+Use case
+: A data analyst can use this activity to run a sales report query on a PostgreSQL database. The output can be formatted using a template Excel file, encrypted using a secret key, and saved with a filename pattern that includes a timestamp.
+Input Type
+Description
+Data
+Optional incoming data used to influence the query or filenames (if dynamic).
+Output
+Output Type
+Format
+Description
+Data
+Table or File Query results, either in-memory (as table) or written to file(s).
+Configuration Fields
+Field Name
+Description
+Datasource Id Select the connection representing the data source (e.g., MySQL, SQL Server, Snowflake) where the query will run.
+Query The query string (SQL or supported query language) to be executed on the selected data source. Supports variables if dynamic queries are needed.
+Save As File Enable this option to save the query result to a file instead of returning it as in-memory table data.
+Secret Key
+Required only when “Save As File” is enabled. This encryption key secures the generated file’s content.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b56a8ada-2ca8-46ed-bc76-c4957e9889b4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>activity allows users to execute SQL queries on files or data stored in a connected data source (e.g., database, storage, or file-based system). This activity supports dynamic queries, and optionally allows saving the results to files with encryption, formatting, and custom output configuration.
+Use this activity to:
+Execute ad hoc or parameterized SQL queries on uploaded or connected data Retrieve transformed or filtered data for further processing
+Generate reports or structured data files from query results
+Use Case
+: Useful in scenarios where data needs to be filtered, joined, aggregated, or reshaped before it’s used in reporting, validation, or export.
 Input
 Type
 Description
-Data A dataset with one or more columns to update using replacement rules
+Files
+Files/data available in the connection
 Output
-Type
+Type Format
 Description
-Transformed Data
-The modified dataset with values replaced as per configuration
+Data / File
+Table / File
+Query result as a table or downloadable file
 Configuration Fields
 Field Name
 Required
 Description
-Column Map
-Yes Define the columns and their associated replacement rules. Each column will have its own settings.
-• Column Name
+Connection
 Yes
-Column on which replacement rules will apply.
-• Matching Mode
-Yes
-Type of match used to find values: Complete Value
-Substring
-Regex Pattern
-• Matching Case
+Connection to the data source where the query should be executed.
+Query Yes
+SQL query to be executed on the connected data source.
+Save As File
 No
-Specify match case:
-Case-Sensitive
-Case-Insensitive
-Replacement
-Yes
-Define the pairs of values to find and their replacements. Multiple rules can be added. • Find
-Yes
-The text or pattern to search for.
-• Replace
-Yes
-The value to replace the matched text with.
+If enabled, the query result will be saved as a file.
+Secret Key
+Conditional Encryption key used to secure the generated output file (enabled only if Save As File is true).
+File Pattern
+Conditional
+Pattern for naming the generated files.
+Sheet Name
+Conditional Sheet name to use in the generated file (for Excel formats).
+File
+Conditional
+Template file to structure the output.
+Split by Column
+Conditional
+Column name used to split the query result into multiple output files.
+Starting Row Conditional
+Row index in the template file from where data insertion begins.
+Starting Column
+Conditional
+Column index in the template file from where data insertion begins.
 Sample Input
-product_id
-product_name
-brand_names
-P001
-Smartphone</t>
+Not applicable
+— data is pulled from the connected data source. Sample Configuration
+Field
+Value
+Connection
+AzureBlobConnection
+Query
+SELECT * FROM SalesData WHERE Region = 'East'
+Save As File
+true
+Secret Key
+Encrypt@123
+File Pattern
+Sales_Report_[Region]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22a05a68-c217-44dd-beb4-0b1f68e967fd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>).
+Query Column Name
+Column name to store the query string (portion after
+?
+) without parsing key-value pairs.
+Fragment Column Name
+Column name to store the fragment identifier (portion after
+#
+, if any). Note
+: This activity does not split the query string into key-value pairs — use the
+Split HTTP Query
+activity if you need that level of detail.
+Sample Input
+employee_id
+name
+url
+E001
+John Doe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4d3b6b3b-adff-4f7b-9502-1e03114d235b</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>page_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_collection_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Send Email | Infoveave Help
+Skip to content
+Send Email
+Description
+The
+Send Email</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>d8d2ef36-2163-43f4-a0ce-5131dfe2a636</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.33333334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>activity allows you to compose and send emails as part of a workflow. You can configure recipient addresses, subject, body content, and attachments . The activity also supports dynamic emailing using fields from input data, and allows the use of pre-designed Infoveave templates for styling and formatting consistency. Use this activity to:
+Send individual or bulk emails based on incoming data
+Attach files generated in the workflow
+Format emails using templates for consistency
+Embed processed data directly into the email body
+Use case
+: A workflow generates a monthly sales report and automatically sends personalized emails to each regional manager with their region’s data attached and included in the body.
+Input
+Type
+Description
+Data</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>b6c30250-ee2b-4833-bd11-65991ca01679</t>
+          <t>d8a64375-61d4-4b97-8302-f10cb379f782</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -928,63 +1065,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>operation to filter issues (e.g.,
-status = "In Progress"
+          <t>(Optional) Tabular data used to populate dynamic fields like email addresses, template content, or attachment grouping.
+Output
+Output Type
+Format
+Description
+Email Info
+Table Status of sent emails including recipient, success, and any errors encountered.
+Configuration Fields
+Field Name
+Description
+Connection
+Mail server connection to send emails (OAuth or SMTP supported).
+Use Default Credentials If enabled, uses Infoveave’s default email credentials. Disable to use custom authentication.
+Use Email Address From Data
+If enabled, pulls recipient addresses from a specified column in the input data.
+Email Column The column in the data containing the recipient’s email address (required if using email from data).
+Email To Address
+Static recipient(s) for the “To” field (comma-separated).
+Email CC Address Email addresses for the “CC” field (comma-separated).
+Email BCC Address
+Email addresses for the “BCC” field.
+Subject
+Subject line of the email. Can be static or mapped from input data.
+Content The main body content of the email. Supports plain text or HTML.
+Use Infoveave Template
+When enabled, applies an Infoveave-designed template to the email layout.
+Rerun Template Ensures template consistency across multiple emails in the same run.
+Attachment Name
+Name of the attachment file (e.g.,
+SalesReport_May2025.xlsx
 ).
-Optional
+Split By Column Splits data into separate attachments based on values in this column (used in bulk personalization).
+Sheet Name
+The name of the worksheet in the template used for formatting the attachment content.
+Send Data In Email Body If enabled, includes input data as a formatted table within the body of the email.
+Attachment File Pattern
+Pattern to identify which files to attach from prior activities (e.g.,
+"*.pdf"
+).
+Combine
+Split By Column with
+Email Column
+to send a unique email with corresponding data and attachment per recipient.
 Sample Input
-Field
-Value
-Summary
-Fix login crash on mobile
-Issue Type
-Bug
-Description App crashes when login is attempted with expired token.
-Project
-MOBILE
-Assignee
-dev.jane
-Priority
-High
+Not applicable
+(used only if sending emails dynamically per row or attaching generated data).
 Sample Configuration
 Field
-Value
-Connection
-Jira OAuth
-Site Name
-your-company.atlassian.net Operation
-Create
-Project
-MOBILE
-Issue Type
-Bug
-Summary
-Fix login crash on mobile
-Description
-App crashes with expired token
-Priority
-High
-Assignee
-dev.jane
-Sample Output
-Field
-Value
-ID 100120
-Key
-MOBILE-456
-Self
-https://your-company.atlassian.net/rest/api/3/issue/100120
-Summary
-Fix login crash on mobile
-Status
-To Do
-Assignee Name
-Jane Developer</t>
+Value</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ff4e04e9-04ad-438d-872a-982d7a8d5848</t>
+          <t>ec87e48b-d2c4-4cf3-a6fd-db34772dacb7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -999,24 +1133,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023
-09
-15
-2
-2022-05-20
-2022
-05
-20
-3
-2021-12-30
-2021
-12
-30</t>
+          <t>2025-07-01T10:05:00Z
+john@example.com
+Welcome Email
+18KB
+onboarding
+ev1235
+opened
+2025-07-01T10:08:00Z jane@example.com
+Promo Offer
+22KB
+promotions
+For
+Messages
+Entity (JSON):
+{
+"headers"
+: {
+"message-id"
+:
+"
+&lt;abc@mailgun.org&gt;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4f8c6653-7195-473f-8720-b21989260535</t>
+          <t>028aadb2-5baf-494f-85a4-f6f5f6b4664f</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1031,199 +1173,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>in Infoveave.</t>
+          <t>Activity Step
+Replaced Values
+SendEmail_12345
+Step 1
+CustomerName: John Doe
+SendEmail_67890
+Step 2
+CustomerName: Jane Smith</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>caccd985-f8af-4286-93dd-d44d741822b1</t>
+          <t>706defb9-58dc-4788-890e-b2b40ff97675</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.14285715</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>permissions
-123456789
-Marketing Projects
-public
-w_123
-4567
-edit</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6a3caa09-5821-43c0-90b2-046969f7a13d</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>111
-222
-Created</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>a756b9ff-e3bf-410e-a48a-7806665eded3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.11111111</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-11-01
-05/05/2023
-1.50</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>e3c32a6b-b022-4422-b4ed-5479d6e3b9af</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>zip
-Zip or postal code.
-country
-Country of the contact.
-Additional Fields
-Custom user-defined fields for
-Create
-,
-Update
-.
-Config Fields Mapping
-Field mappings for input data in
-Create Many
-. Additional Fields Mapping
-Custom field mappings for
-Create Many
-.
-Sample Input
-Operation
-Required Fields
-Example
-Get
-Id
-Id:
-123456700000001
-Get All
-None
-(No input required)
-Create Contact fields
-firstname:
-John
-, lastname:
-Doe
-, email:
-john@example.com
-, city:
-New York
-, jobtitle:
-Manager
-Update
-Id
-, fields to update
-Id: 123456700000001
-, jobtitle:
-Senior Manager
-, city:
-Los Angeles
-Delete
-Id
-Id:
-123456700000001
-Create Many
-Field Mappings ConfigFieldsMapping: { firstname → FirstName, email → EmailAddress, city → Location }, AdditionalFieldsMapping: { jobtitle → Role }
-Input fields for
-Create Many operation are mapped from data output by the previous activity in the workflow.
-Sample Configuration
-Field
-Value
-connection.id
-hubspot-conn-001
-operation
-CreateMany
-ConfigFieldsMapping firstname → FirstName, email → EmailAddress, city → Location
-AdditionalFieldsMapping
-jobtitle → Role
-Sample Output
-Id
-First Name
-Last Name
-Email
-City
-Job Title
-Created Time
-12345678
-John</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>edd31958-e0dd-43c6-9100-c28606ff1ee5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.09090909</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-07-01T11:15Z</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9a892e99-7db3-404e-832f-fd14114bd0cf</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>infoverve_docs_kg_hybrid</t>
         </is>

--- a/data/results/reterived_docs.xlsx
+++ b/data/results/reterived_docs.xlsx
@@ -463,14 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Workflow Alerts | Infoveave Help
-Skip to content
-Workflow Alerts</t>
+          <t>Upload transformed file to destination database
+Setup the 'Oracle' connection, specify tables, and map columns
+Setup automated workflow summary notification
+Enable 'Send Workflow Summary' for email notifications on automated workflow execution
+Schedule and monitor  workflows Schedule or setup 'Webhooks' and 'Emails' to trigger workflows
+Done</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>af1d6067-3d6b-46bb-ab0f-f276854e4fe7</t>
+          <t>106119e3-e248-4682-afd5-96af92f700cf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,165 +487,6 @@
         <v>0.33333334</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Automate workflows | Infoveave Help
-Skip to content
-Automate workflows
-Fetch Excel files from remote locations and upload to a database
-Import your file
-Transform your data
-Upload to your storage database
-Send workflow summary</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>c5602d79-e027-49ad-8532-ac56f7ea0bad</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Managing Workflow | Infoveave Help
-Skip to content
-Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9bb3b909-b9f5-4755-b858-5a9f50e52c59</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Managing Workflow | Infoveave Help
-Skip to content
-Managing Workflow Manage Infoveave Workflows with the flexibility and control you need to streamline your data processing and automation activities</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5954da2e-cbd3-476d-8bb5-82170295fdf6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.16666667</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
-Click on the
-Add</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10302f38-8b90-44a9-be47-42654d212fc4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.14285715</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
-Click on the
-Add</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>f8526840-2aff-4f39-b492-4fe991efc3f5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Workflow Start | Infoveave Help
-Skip to content
-Workflow Start</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>a7431116-9858-403e-9be5-86a8b5febbc7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.11111111</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Workflow Start | Infoveave Help
-Skip to content
-Workflow Start</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>d5e69425-463f-4156-823e-09315f11033b</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>infoverve_docs_kg_hybrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>Creating Infoboard Using A Query
 Create Infoboard Using A Query
@@ -654,9 +498,213 @@
 Workflow Execution Status</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cb2b37ce-ec3a-4f89-8adb-4ede16cb755b</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Workflow Designer
+canvas.
+To add alerts that send email notifications during the workflow, go to the
+Alerts
+tab in the
+Workflow Setup panel
+.
+Toggle
+Enable
+to turn the alert on or off. Select recipient email addresses from the user list. You can choose multiple recipients.
+Write a custom alert message that is sent when the condition is met.
+When setting an execution time alert, toggle
+Use Absolute Time</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d4d7e6bc-6def-4051-8cc1-84335a11ad67</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Workflow Designer
+canvas.
+To add alerts that send email notifications during the workflow, go to the
+Alerts
+tab in the
+Workflow Setup panel
+.
+Toggle
+Enable
+to turn the alert on or off. Select recipient email addresses from the user list. You can choose multiple recipients.
+Write a custom alert message that is sent when the condition is met.
+When setting an execution time alert, toggle
+Use Absolute Time</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0eed6323-8e86-471a-8a39-dda746bc8fc4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Workflow Alerts | Infoveave Help
+Skip to content
+Workflow Alerts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>af1d6067-3d6b-46bb-ab0f-f276854e4fe7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14285715</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
+Click on the
+Add</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10302f38-8b90-44a9-be47-42654d212fc4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Choose the days on which you want to execute the Workflow. By default, Infoveave sets it to every day. You can select specific days of the week, days of the month, or months.
+Click on the
+Add</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f8526840-2aff-4f39-b492-4fe991efc3f5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.11111111</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>27d85979-7b2f-4898-ae73-3b3efb95a6b8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>infoverve_docs_kg_hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Add FTP Download Activity
+0:21
+Configure FTP Download Activity
+0:31
+Add Read Excel Files Activity
+0:35
+Add Transform Activity using Javascript
+0:40
+Add Round Numbers Activity
+0:46 Add Remove Duplicate Rows Activity
+0:52
+Add Drop Columns Activity
+0:56
+Add Rename Columns Activity
+1:01
+Add Upload to Datasource Activity
+1:08
+Execute the Workflow and View Instance History</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cb2b37ce-ec3a-4f89-8adb-4ede16cb755b</t>
+          <t>5d29dcdc-51e1-4d85-a901-cd1bd6257008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -671,14 +719,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Introducing Workflows | Infoveave Help
-Skip to content
-Introducing Workflows</t>
+          <t>E
+Emailhook trigger The Emailhook trigger initiates a Workflow based on incoming emails. You can set up specific email addresses that serve as Emailhooks. This allows for  automated processing of email-based activities or notifications . This trigger is useful for Workflows that involve email notifications or processing of data received via email.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08fad07f-1f32-42ba-a966-ad5c94fd510e</t>
+          <t>80d5a905-909e-4ac3-9411-b519b1f3579f</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
